--- a/Experimental Results/cell dry weight measurements.xlsx
+++ b/Experimental Results/cell dry weight measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="132" windowWidth="14340" windowHeight="5832"/>
+    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835"/>
   </bookViews>
   <sheets>
     <sheet name="Trial 1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Density</t>
+  </si>
+  <si>
+    <t>OD = 1</t>
   </si>
 </sst>
 </file>
@@ -397,23 +400,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +430,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -450,7 +453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -476,7 +479,7 @@
         <v>0.61999999999997613</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -502,7 +505,7 @@
         <v>0.64000000000000057</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -528,7 +531,7 @@
         <v>0.70000000000000284</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -554,7 +557,7 @@
         <v>0.79999999999998295</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -582,8 +585,11 @@
         <f t="shared" si="3"/>
         <v>0.68999999999999062</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -611,8 +617,12 @@
         <f t="shared" ref="G9" si="5">STDEV(G4:G7)</f>
         <v>8.082903768654727E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <f>0.69/0.895</f>
+        <v>0.77094972067039103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -632,6 +642,9 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -648,14 +661,14 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -879,7 +892,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Experimental Results/cell dry weight measurements.xlsx
+++ b/Experimental Results/cell dry weight measurements.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835"/>
+    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832"/>
   </bookViews>
   <sheets>
     <sheet name="Trial 1" sheetId="1" r:id="rId1"/>
     <sheet name="Trial 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Salts Calculations" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -61,6 +61,63 @@
   </si>
   <si>
     <t>OD = 1</t>
+  </si>
+  <si>
+    <t>Dry Wt. 2</t>
+  </si>
+  <si>
+    <t>Dry cell Wt. 2</t>
+  </si>
+  <si>
+    <t>Density 2</t>
+  </si>
+  <si>
+    <t>Compound</t>
+  </si>
+  <si>
+    <t>Amount (g)</t>
+  </si>
+  <si>
+    <t>KCl</t>
+  </si>
+  <si>
+    <t>NaCl</t>
+  </si>
+  <si>
+    <t>NaHCO3</t>
+  </si>
+  <si>
+    <t>FeSO4</t>
+  </si>
+  <si>
+    <t>CaCl2</t>
+  </si>
+  <si>
+    <t>MgCl2</t>
+  </si>
+  <si>
+    <t>MgSO4</t>
+  </si>
+  <si>
+    <t>Amount (mL)</t>
+  </si>
+  <si>
+    <t>Total Wt</t>
+  </si>
+  <si>
+    <t>g salts/g media</t>
+  </si>
+  <si>
+    <t>g salts in media</t>
+  </si>
+  <si>
+    <t>Wet-Dry</t>
+  </si>
+  <si>
+    <t>Minus Salts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Salt Density </t>
   </si>
 </sst>
 </file>
@@ -84,7 +141,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -92,13 +149,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,23 +499,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +533,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -452,8 +555,26 @@
       <c r="G3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -478,8 +599,27 @@
         <f>F4/0.05</f>
         <v>0.61999999999997613</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>13.116</v>
+      </c>
+      <c r="L4">
+        <f>K4-B4</f>
+        <v>1.7999999999998906E-2</v>
+      </c>
+      <c r="M4">
+        <f>L4/0.05</f>
+        <v>0.35999999999997812</v>
+      </c>
+      <c r="N4">
+        <f>L4-'Salts Calculations'!D14*'Trial 1'!P4</f>
+        <v>1.7999999999998906E-2</v>
+      </c>
+      <c r="O4">
+        <f>N4/0.05</f>
+        <v>0.35999999999997812</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -504,8 +644,31 @@
         <f t="shared" ref="G5:G7" si="2">F5/0.05</f>
         <v>0.64000000000000057</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>13.129</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L7" si="3">K5-B5</f>
+        <v>1.9000000000000128E-2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M7" si="4">L5/0.05</f>
+        <v>0.38000000000000256</v>
+      </c>
+      <c r="N5">
+        <f>L5-'Salts Calculations'!D14*'Trial 1'!P5</f>
+        <v>2.3988513495995373E-3</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O7" si="5">N5/0.05</f>
+        <v>4.7977026991990745E-2</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P7" si="6">C5-K5</f>
+        <v>0.50699999999999967</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -530,8 +693,31 @@
         <f t="shared" si="2"/>
         <v>0.70000000000000284</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>13.096</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>2.2000000000000242E-2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>0.44000000000000483</v>
+      </c>
+      <c r="N6">
+        <f>L6-'Salts Calculations'!D14*'Trial 1'!P6</f>
+        <v>2.2554385873936184E-3</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="5"/>
+        <v>4.5108771747872367E-2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="6"/>
+        <v>0.60299999999999976</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -556,8 +742,31 @@
         <f t="shared" si="2"/>
         <v>0.79999999999998295</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>13.129</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>2.7999999999998693E-2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>0.55999999999997385</v>
+      </c>
+      <c r="N7">
+        <f>L7-'Salts Calculations'!D14*'Trial 1'!P7</f>
+        <v>3.5075755611433321E-3</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>7.0151511222866642E-2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="6"/>
+        <v>0.74800000000000111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -566,30 +775,46 @@
         <v>13.095749999999999</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:G8" si="3">AVERAGE(C4:C7)</f>
+        <f t="shared" ref="C8:G8" si="7">AVERAGE(C4:C7)</f>
         <v>13.71325</v>
       </c>
       <c r="D8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>13.13025</v>
       </c>
       <c r="E8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.61749999999999972</v>
       </c>
       <c r="F8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.4499999999999531E-2</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.68999999999999062</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="5"/>
+      <c r="K8">
+        <f t="shared" ref="K8:M8" si="8">AVERAGE(K4:K7)</f>
+        <v>13.117499999999998</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="8"/>
+        <v>2.1749999999999492E-2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="8"/>
+        <v>0.43499999999998984</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -598,31 +823,48 @@
         <v>1.5370426148939432E-2</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:F9" si="4">STDEV(C4:C7)</f>
+        <f t="shared" ref="C9:F9" si="9">STDEV(C4:C7)</f>
         <v>0.11284908801876416</v>
       </c>
       <c r="D9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1.5348724159790278E-2</v>
       </c>
       <c r="E9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0.11416508514719675</v>
       </c>
       <c r="F9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4.0414518843273385E-3</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9" si="5">STDEV(G4:G7)</f>
+        <f t="shared" ref="G9" si="10">STDEV(G4:G7)</f>
         <v>8.082903768654727E-2</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <f>0.69/0.895</f>
         <v>0.77094972067039103</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="5"/>
+      <c r="K9">
+        <f t="shared" ref="K9:M9" si="11">STDEV(K4:K7)</f>
+        <v>1.558845726811965E-2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="11"/>
+        <v>4.499999999999677E-3</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="11"/>
+        <v>8.9999999999993807E-2</v>
+      </c>
+      <c r="O9" s="3">
+        <f>M8/D1</f>
+        <v>0.48603351955306129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -644,7 +886,40 @@
       <c r="G10" t="s">
         <v>12</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <f>C8-K8</f>
+        <v>0.59575000000000244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O16">
+        <f>AVERAGE(O4:O7)</f>
+        <v>0.13080932749067697</v>
+      </c>
+    </row>
+    <row r="17" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O17" t="s">
         <v>12</v>
       </c>
     </row>
@@ -655,23 +930,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +961,7 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -707,8 +983,17 @@
       <c r="G3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -730,8 +1015,19 @@
         <f>F4/0.05</f>
         <v>-262.44</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>13.116</v>
+      </c>
+      <c r="L4">
+        <f>K4-B4</f>
+        <v>-6.0000000000002274E-3</v>
+      </c>
+      <c r="M4">
+        <f>L4/0.05</f>
+        <v>-0.12000000000000455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -753,8 +1049,19 @@
         <f t="shared" ref="G5:G7" si="2">F5/0.05</f>
         <v>-261.88</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>13.129</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L7" si="3">K5-B5</f>
+        <v>3.5000000000000142E-2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M7" si="4">L5/0.05</f>
+        <v>0.70000000000000284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -776,8 +1083,19 @@
         <f t="shared" si="2"/>
         <v>-261.08</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>13.096</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>4.1999999999999815E-2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>0.83999999999999631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -799,8 +1117,19 @@
         <f t="shared" si="2"/>
         <v>-262.15999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>13.129</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>2.0999999999999019E-2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>0.41999999999998039</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -809,27 +1138,46 @@
         <v>13.0945</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:G8" si="3">AVERAGE(C4:C7)</f>
+        <f t="shared" ref="C8:G8" si="5">AVERAGE(C4:C7)</f>
         <v>14.822749999999999</v>
       </c>
       <c r="D8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.7282499999999996</v>
       </c>
       <c r="F8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-13.0945</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-261.89</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8">
+        <f t="shared" ref="K8:M8" si="6">AVERAGE(K4:K7)</f>
+        <v>13.117499999999998</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>2.2999999999999687E-2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="6"/>
+        <v>0.45999999999999375</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -838,27 +1186,48 @@
         <v>2.9320072760255257E-2</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:G9" si="4">STDEV(C4:C7)</f>
+        <f t="shared" ref="C9:G9" si="7">STDEV(C4:C7)</f>
         <v>0.99476642987185615</v>
       </c>
       <c r="D9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0029494420624259</v>
       </c>
       <c r="F9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.9320072760255257E-2</v>
       </c>
       <c r="G9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.58640145520510834</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I9" s="3">
+        <f>G8/D1</f>
+        <v>-286.21857923497265</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9">
+        <f t="shared" ref="K9:M9" si="8">STDEV(K4:K7)</f>
+        <v>1.558845726811965E-2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="8"/>
+        <v>2.1213203435596531E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="8"/>
+        <v>0.42426406871193062</v>
+      </c>
+      <c r="O9" s="3">
+        <f>M8/D1</f>
+        <v>0.50273224043715159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -878,6 +1247,22 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -888,12 +1273,124 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>24.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>31.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>45</v>
+      </c>
+      <c r="H11">
+        <f>0.6*D14</f>
+        <v>1.9646329763787693E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <f>303/9000</f>
+        <v>3.3666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <f>B15/(B15+8953)</f>
+        <v>3.2743882939646154E-2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <f>SUM(B2:B7)</f>
+        <v>303.08</v>
+      </c>
+      <c r="D15">
+        <f>1000*D14</f>
+        <v>32.743882939646156</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Experimental Results/cell dry weight measurements.xlsx
+++ b/Experimental Results/cell dry weight measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832"/>
+    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Trial 1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -133,12 +133,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -190,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -198,6 +204,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -810,7 +819,7 @@
         <f t="shared" si="8"/>
         <v>0.43499999999998984</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -859,7 +868,7 @@
         <f t="shared" si="11"/>
         <v>8.9999999999993807E-2</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="8">
         <f>M8/D1</f>
         <v>0.48603351955306129</v>
       </c>
@@ -899,7 +908,7 @@
       <c r="M10" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="9" t="s">
         <v>12</v>
       </c>
       <c r="P10" s="6" t="s">
@@ -933,7 +942,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -983,15 +992,6 @@
       <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -1003,28 +1003,20 @@
       <c r="C4">
         <v>13.925000000000001</v>
       </c>
+      <c r="D4">
+        <v>13.16</v>
+      </c>
       <c r="E4">
         <f>C4-B4</f>
         <v>0.80300000000000082</v>
       </c>
       <c r="F4">
         <f>D4-B4</f>
-        <v>-13.122</v>
+        <v>3.8000000000000256E-2</v>
       </c>
       <c r="G4">
         <f>F4/0.05</f>
-        <v>-262.44</v>
-      </c>
-      <c r="K4">
-        <v>13.116</v>
-      </c>
-      <c r="L4">
-        <f>K4-B4</f>
-        <v>-6.0000000000002274E-3</v>
-      </c>
-      <c r="M4">
-        <f>L4/0.05</f>
-        <v>-0.12000000000000455</v>
+        <v>0.76000000000000512</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.3">
@@ -1037,28 +1029,20 @@
       <c r="C5">
         <v>14.11</v>
       </c>
+      <c r="D5">
+        <v>13.141999999999999</v>
+      </c>
       <c r="E5">
         <f t="shared" ref="E5:E7" si="0">C5-B5</f>
         <v>1.016</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F7" si="1">D5-B5</f>
-        <v>-13.093999999999999</v>
+        <v>4.8000000000000043E-2</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G7" si="2">F5/0.05</f>
-        <v>-261.88</v>
-      </c>
-      <c r="K5">
-        <v>13.129</v>
-      </c>
-      <c r="L5">
-        <f t="shared" ref="L5:L7" si="3">K5-B5</f>
-        <v>3.5000000000000142E-2</v>
-      </c>
-      <c r="M5">
-        <f t="shared" ref="M5:M7" si="4">L5/0.05</f>
-        <v>0.70000000000000284</v>
+        <v>0.96000000000000085</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.3">
@@ -1071,28 +1055,20 @@
       <c r="C6">
         <v>15.205</v>
       </c>
+      <c r="D6">
+        <v>13.137</v>
+      </c>
       <c r="E6">
         <f t="shared" si="0"/>
         <v>2.1509999999999998</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>-13.054</v>
+        <v>8.3000000000000185E-2</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>-261.08</v>
-      </c>
-      <c r="K6">
-        <v>13.096</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="3"/>
-        <v>4.1999999999999815E-2</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="4"/>
-        <v>0.83999999999999631</v>
+        <v>1.6600000000000037</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1105,28 +1081,20 @@
       <c r="C7">
         <v>16.050999999999998</v>
       </c>
+      <c r="D7">
+        <v>13.215</v>
+      </c>
       <c r="E7">
         <f t="shared" si="0"/>
         <v>2.9429999999999978</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>-13.108000000000001</v>
+        <v>0.10699999999999932</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>-262.15999999999997</v>
-      </c>
-      <c r="K7">
-        <v>13.129</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="3"/>
-        <v>2.0999999999999019E-2</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="4"/>
-        <v>0.41999999999998039</v>
+        <v>2.1399999999999864</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1138,44 +1106,30 @@
         <v>13.0945</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:G8" si="5">AVERAGE(C4:C7)</f>
+        <f t="shared" ref="C8:G8" si="3">AVERAGE(C4:C7)</f>
         <v>14.822749999999999</v>
       </c>
-      <c r="D8" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>13.163499999999999</v>
       </c>
       <c r="E8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.7282499999999996</v>
       </c>
       <c r="F8">
-        <f t="shared" si="5"/>
-        <v>-13.0945</v>
+        <f t="shared" si="3"/>
+        <v>6.899999999999995E-2</v>
       </c>
       <c r="G8">
-        <f t="shared" si="5"/>
-        <v>-261.89</v>
+        <f t="shared" si="3"/>
+        <v>1.379999999999999</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="5"/>
-      <c r="K8">
-        <f t="shared" ref="K8:M8" si="6">AVERAGE(K4:K7)</f>
-        <v>13.117499999999998</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="6"/>
-        <v>2.2999999999999687E-2</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="6"/>
-        <v>0.45999999999999375</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1186,46 +1140,31 @@
         <v>2.9320072760255257E-2</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:G9" si="7">STDEV(C4:C7)</f>
+        <f t="shared" ref="C9:G9" si="4">STDEV(C4:C7)</f>
         <v>0.99476642987185615</v>
       </c>
-      <c r="D9" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="D9">
+        <f t="shared" si="4"/>
+        <v>3.5725807665234498E-2</v>
       </c>
       <c r="E9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.0029494420624259</v>
       </c>
       <c r="F9">
-        <f t="shared" si="7"/>
-        <v>2.9320072760255257E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.1843366656180969E-2</v>
       </c>
       <c r="G9">
-        <f t="shared" si="7"/>
-        <v>0.58640145520510834</v>
+        <f t="shared" si="4"/>
+        <v>0.63686733312361965</v>
       </c>
       <c r="I9" s="3">
         <f>G8/D1</f>
-        <v>-286.21857923497265</v>
+        <v>1.5081967213114742</v>
       </c>
       <c r="J9" s="5"/>
-      <c r="K9">
-        <f t="shared" ref="K9:M9" si="8">STDEV(K4:K7)</f>
-        <v>1.558845726811965E-2</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="8"/>
-        <v>2.1213203435596531E-2</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="8"/>
-        <v>0.42426406871193062</v>
-      </c>
-      <c r="O9" s="3">
-        <f>M8/D1</f>
-        <v>0.50273224043715159</v>
-      </c>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -1253,18 +1192,7 @@
         <v>12</v>
       </c>
       <c r="J10" s="5"/>
-      <c r="K10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="O10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1275,7 +1203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/Experimental Results/cell dry weight measurements.xlsx
+++ b/Experimental Results/cell dry weight measurements.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" activeTab="2"/>
+    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Trial 1" sheetId="1" r:id="rId1"/>
     <sheet name="Trial 2" sheetId="2" r:id="rId2"/>
     <sheet name="Salts Calculations" sheetId="3" r:id="rId3"/>
+    <sheet name="Filtering Method" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -118,6 +119,42 @@
   </si>
   <si>
     <t xml:space="preserve">No Salt Density </t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Initial Wt</t>
+  </si>
+  <si>
+    <t>OD:</t>
+  </si>
+  <si>
+    <t>Adjusted</t>
+  </si>
+  <si>
+    <t>Added</t>
+  </si>
+  <si>
+    <t>Average:</t>
+  </si>
+  <si>
+    <t>Stdev:</t>
+  </si>
+  <si>
+    <t>Stdev</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>Cell Dens.</t>
+  </si>
+  <si>
+    <t>Avg. Dens</t>
   </si>
 </sst>
 </file>
@@ -196,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -207,6 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -219,6 +257,171 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.22311601860139713"/>
+                  <c:y val="0.10812698091627464"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Filtering Method'!$K$2:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Filtering Method'!$L$2:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.5499999999999986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4166666666666578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="47190016"/>
+        <c:axId val="47188224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="47190016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="47188224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="47188224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="47190016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200810</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>125281</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>505610</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>125281</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1203,7 +1406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1321,4 +1524,379 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="10">
+        <v>42320</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1">
+        <v>0.83</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="10">
+        <v>42320</v>
+      </c>
+      <c r="D2" s="10">
+        <v>42324</v>
+      </c>
+      <c r="E2" s="10">
+        <v>42326</v>
+      </c>
+      <c r="F2" s="10">
+        <v>42327</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2">
+        <v>0.83</v>
+      </c>
+      <c r="L2">
+        <f>I7</f>
+        <v>0.5499999999999986</v>
+      </c>
+      <c r="M2">
+        <f>I8</f>
+        <v>4.9999999999994493E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>2.4350000000000001</v>
+      </c>
+      <c r="C3">
+        <v>2.4430000000000001</v>
+      </c>
+      <c r="D3">
+        <v>2.4390000000000001</v>
+      </c>
+      <c r="E3">
+        <v>2.44</v>
+      </c>
+      <c r="F3">
+        <v>2.4390000000000001</v>
+      </c>
+      <c r="G3">
+        <f>F3-B3</f>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="L3">
+        <f>F15</f>
+        <v>0.4166666666666578</v>
+      </c>
+      <c r="M3">
+        <f>F16</f>
+        <v>2.8867513459484521E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2.88</v>
+      </c>
+      <c r="C4">
+        <v>2.8969999999999998</v>
+      </c>
+      <c r="D4">
+        <v>2.8959999999999999</v>
+      </c>
+      <c r="E4">
+        <v>2.8959999999999999</v>
+      </c>
+      <c r="F4">
+        <v>2.8959999999999999</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G6" si="0">F4-B4</f>
+        <v>1.6000000000000014E-2</v>
+      </c>
+      <c r="H4">
+        <f>G4-$G$3</f>
+        <v>1.2000000000000011E-2</v>
+      </c>
+      <c r="I4">
+        <f>H4/0.02</f>
+        <v>0.60000000000000053</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2.9180000000000001</v>
+      </c>
+      <c r="C5">
+        <v>2.9340000000000002</v>
+      </c>
+      <c r="D5">
+        <v>2.9340000000000002</v>
+      </c>
+      <c r="E5">
+        <v>2.9329999999999998</v>
+      </c>
+      <c r="F5">
+        <v>2.9329999999999998</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1.499999999999968E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H6" si="1">G5-$G$3</f>
+        <v>1.0999999999999677E-2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I6" si="2">H5/0.02</f>
+        <v>0.54999999999998384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>2.5539999999999998</v>
+      </c>
+      <c r="C6">
+        <v>2.5710000000000002</v>
+      </c>
+      <c r="D6">
+        <v>2.569</v>
+      </c>
+      <c r="E6">
+        <v>2.5680000000000001</v>
+      </c>
+      <c r="F6">
+        <v>2.5680000000000001</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>1.4000000000000234E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000231E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0.50000000000001155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <f>AVERAGE(G4:G6)</f>
+        <v>1.4999999999999977E-2</v>
+      </c>
+      <c r="H7">
+        <f>AVERAGE(H4:H6)</f>
+        <v>1.0999999999999973E-2</v>
+      </c>
+      <c r="I7">
+        <f>AVERAGE(I4:I6)</f>
+        <v>0.5499999999999986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8">
+        <f>STDEV(G4:G6)</f>
+        <v>9.9999999999988987E-4</v>
+      </c>
+      <c r="H8">
+        <f>STDEV(H4:H6)</f>
+        <v>9.9999999999988987E-4</v>
+      </c>
+      <c r="I8">
+        <f>STDEV(I4:I6)</f>
+        <v>4.9999999999994493E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>42326</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>0.63400000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="10">
+        <v>42327</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2.7930000000000001</v>
+      </c>
+      <c r="C12">
+        <v>2.8050000000000002</v>
+      </c>
+      <c r="D12">
+        <f>C12-B12</f>
+        <v>1.2000000000000011E-2</v>
+      </c>
+      <c r="E12">
+        <f>D12-$G$3</f>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="F12">
+        <f>E12/0.02</f>
+        <v>0.40000000000000036</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2.7869999999999999</v>
+      </c>
+      <c r="C13">
+        <v>2.8</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:D14" si="3">C13-B13</f>
+        <v>1.2999999999999901E-2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E14" si="4">D13-$G$3</f>
+        <v>8.999999999999897E-3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F14" si="5">E13/0.02</f>
+        <v>0.44999999999999485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>2.99</v>
+      </c>
+      <c r="C14">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>1.1999999999999567E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="4"/>
+        <v>7.999999999999563E-3</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="5"/>
+        <v>0.39999999999997815</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <f>AVERAGE(D12:D14)</f>
+        <v>1.233333333333316E-2</v>
+      </c>
+      <c r="E15">
+        <f>AVERAGE(E12:E14)</f>
+        <v>8.3333333333331563E-3</v>
+      </c>
+      <c r="F15">
+        <f>AVERAGE(F12:F14)</f>
+        <v>0.4166666666666578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16">
+        <f>STDEV(D12:D14)</f>
+        <v>5.7735026918969042E-4</v>
+      </c>
+      <c r="E16">
+        <f>STDEV(E12:E14)</f>
+        <v>5.7735026918969042E-4</v>
+      </c>
+      <c r="F16">
+        <f>STDEV(F12:F14)</f>
+        <v>2.8867513459484521E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Experimental Results/cell dry weight measurements.xlsx
+++ b/Experimental Results/cell dry weight measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Trial 1" sheetId="1" r:id="rId1"/>
@@ -342,11 +342,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="47190016"/>
-        <c:axId val="47188224"/>
+        <c:axId val="44600320"/>
+        <c:axId val="44606208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47190016"/>
+        <c:axId val="44600320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -356,12 +356,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47188224"/>
+        <c:crossAx val="44606208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47188224"/>
+        <c:axId val="44606208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -372,7 +372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47190016"/>
+        <c:crossAx val="44600320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -717,21 +717,21 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -745,7 +745,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -786,7 +786,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -831,7 +831,7 @@
         <v>0.35999999999997812</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -880,7 +880,7 @@
         <v>0.50699999999999967</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -929,7 +929,7 @@
         <v>0.60299999999999976</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -978,7 +978,7 @@
         <v>0.74800000000000111</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>0.48603351955306129</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1118,19 +1118,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>C8-K8</f>
         <v>0.59575000000000244</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="O16">
         <f>AVERAGE(O4:O7)</f>
         <v>0.13080932749067697</v>
       </c>
     </row>
-    <row r="17" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O17" t="s">
         <v>12</v>
       </c>
@@ -1148,18 +1148,18 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>0.76000000000000512</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>0.96000000000000085</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>1.6600000000000037</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>2.1399999999999864</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1334,7 +1334,7 @@
       <c r="J8" s="5"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1369,7 +1369,7 @@
       <c r="J9" s="5"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1410,11 +1410,11 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1531,12 +1531,12 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">

--- a/Experimental Results/cell dry weight measurements.xlsx
+++ b/Experimental Results/cell dry weight measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835" activeTab="3"/>
+    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Trial 1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -342,11 +342,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="44600320"/>
-        <c:axId val="44606208"/>
+        <c:axId val="130176512"/>
+        <c:axId val="130178048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="44600320"/>
+        <c:axId val="130176512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -356,12 +356,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44606208"/>
+        <c:crossAx val="130178048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="44606208"/>
+        <c:axId val="130178048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -372,7 +372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44600320"/>
+        <c:crossAx val="130176512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -717,21 +717,21 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -745,7 +745,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -786,7 +786,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -831,7 +831,7 @@
         <v>0.35999999999997812</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -880,7 +880,7 @@
         <v>0.50699999999999967</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -929,7 +929,7 @@
         <v>0.60299999999999976</v>
       </c>
     </row>
-    <row r="7" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -978,7 +978,7 @@
         <v>0.74800000000000111</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>0.48603351955306129</v>
       </c>
     </row>
-    <row r="10" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1118,19 +1118,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>C8-K8</f>
         <v>0.59575000000000244</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O16">
         <f>AVERAGE(O4:O7)</f>
         <v>0.13080932749067697</v>
       </c>
     </row>
-    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="15:15" ht="15" x14ac:dyDescent="0.25">
       <c r="O17" t="s">
         <v>12</v>
       </c>
@@ -1148,18 +1148,18 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>0.76000000000000512</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>0.96000000000000085</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>1.6600000000000037</v>
       </c>
     </row>
-    <row r="7" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>2.1399999999999864</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1334,7 +1334,7 @@
       <c r="J8" s="5"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1369,7 +1369,7 @@
       <c r="J9" s="5"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1410,11 +1410,11 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1528,15 +1528,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -1623,11 +1623,11 @@
         <v>0.63400000000000001</v>
       </c>
       <c r="L3">
-        <f>F15</f>
+        <f>G15</f>
         <v>0.4166666666666578</v>
       </c>
       <c r="M3">
-        <f>F16</f>
+        <f>G16</f>
         <v>2.8867513459484521E-2</v>
       </c>
     </row>
@@ -1782,13 +1782,16 @@
       <c r="C11" s="10">
         <v>42327</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="10">
+        <v>42331</v>
+      </c>
+      <c r="E11" t="s">
         <v>39</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>38</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1803,15 +1806,18 @@
         <v>2.8050000000000002</v>
       </c>
       <c r="D12">
+        <v>2.806</v>
+      </c>
+      <c r="E12">
         <f>C12-B12</f>
         <v>1.2000000000000011E-2</v>
       </c>
-      <c r="E12">
-        <f>D12-$G$3</f>
+      <c r="F12">
+        <f>E12-$G$3</f>
         <v>8.0000000000000071E-3</v>
       </c>
-      <c r="F12">
-        <f>E12/0.02</f>
+      <c r="G12">
+        <f>F12/0.02</f>
         <v>0.40000000000000036</v>
       </c>
     </row>
@@ -1826,15 +1832,18 @@
         <v>2.8</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:D14" si="3">C13-B13</f>
+        <v>2.8010000000000002</v>
+      </c>
+      <c r="E13">
+        <f>C13-B13</f>
         <v>1.2999999999999901E-2</v>
       </c>
-      <c r="E13">
-        <f t="shared" ref="E13:E14" si="4">D13-$G$3</f>
+      <c r="F13">
+        <f t="shared" ref="F13:F14" si="3">E13-$G$3</f>
         <v>8.999999999999897E-3</v>
       </c>
-      <c r="F13">
-        <f t="shared" ref="F13:F14" si="5">E13/0.02</f>
+      <c r="G13">
+        <f t="shared" ref="G13:G14" si="4">F13/0.02</f>
         <v>0.44999999999999485</v>
       </c>
     </row>
@@ -1849,15 +1858,18 @@
         <v>3.0019999999999998</v>
       </c>
       <c r="D14">
+        <v>3.0030000000000001</v>
+      </c>
+      <c r="E14">
+        <f>C14-B14</f>
+        <v>1.1999999999999567E-2</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="3"/>
-        <v>1.1999999999999567E-2</v>
-      </c>
-      <c r="E14">
+        <v>7.999999999999563E-3</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="4"/>
-        <v>7.999999999999563E-3</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="5"/>
         <v>0.39999999999997815</v>
       </c>
     </row>
@@ -1865,16 +1877,16 @@
       <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="D15">
-        <f>AVERAGE(D12:D14)</f>
-        <v>1.233333333333316E-2</v>
-      </c>
       <c r="E15">
         <f>AVERAGE(E12:E14)</f>
-        <v>8.3333333333331563E-3</v>
+        <v>1.233333333333316E-2</v>
       </c>
       <c r="F15">
         <f>AVERAGE(F12:F14)</f>
+        <v>8.3333333333331563E-3</v>
+      </c>
+      <c r="G15">
+        <f>AVERAGE(G12:G14)</f>
         <v>0.4166666666666578</v>
       </c>
     </row>
@@ -1882,17 +1894,76 @@
       <c r="C16" t="s">
         <v>41</v>
       </c>
-      <c r="D16">
-        <f>STDEV(D12:D14)</f>
-        <v>5.7735026918969042E-4</v>
-      </c>
       <c r="E16">
         <f>STDEV(E12:E14)</f>
         <v>5.7735026918969042E-4</v>
       </c>
       <c r="F16">
         <f>STDEV(F12:F14)</f>
+        <v>5.7735026918969042E-4</v>
+      </c>
+      <c r="G16">
+        <f>STDEV(G12:G14)</f>
         <v>2.8867513459484521E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>42327</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="10">
+        <v>42331</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>2.8159999999999998</v>
+      </c>
+      <c r="C19">
+        <v>2.831</v>
+      </c>
+      <c r="D19">
+        <f>C19-B19</f>
+        <v>1.5000000000000124E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>3.2570000000000001</v>
+      </c>
+      <c r="C20">
+        <v>3.2709999999999999</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:D21" si="5">C20-B20</f>
+        <v>1.399999999999979E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>3.3109999999999999</v>
+      </c>
+      <c r="C21">
+        <v>3.3210000000000002</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000231E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Experimental Results/cell dry weight measurements.xlsx
+++ b/Experimental Results/cell dry weight measurements.xlsx
@@ -342,11 +342,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="44600320"/>
-        <c:axId val="44606208"/>
+        <c:axId val="55669504"/>
+        <c:axId val="55671040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="44600320"/>
+        <c:axId val="55669504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -356,12 +356,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44606208"/>
+        <c:crossAx val="55671040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="44606208"/>
+        <c:axId val="55671040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -372,7 +372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44600320"/>
+        <c:crossAx val="55669504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -394,15 +394,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>200810</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>125281</xdr:rowOff>
+      <xdr:colOff>155986</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>147693</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>505610</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>125281</xdr:rowOff>
+      <xdr:colOff>460786</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>147693</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1530,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Experimental Results/cell dry weight measurements.xlsx
+++ b/Experimental Results/cell dry weight measurements.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -155,6 +155,15 @@
   </si>
   <si>
     <t>Avg. Dens</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>All Numbers</t>
+  </si>
+  <si>
+    <t>Cell Dens</t>
   </si>
 </sst>
 </file>
@@ -273,6 +282,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Plotting Averages Only</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -304,30 +332,36 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Filtering Method'!$K$2:$K$3</c:f>
+              <c:f>'Filtering Method'!$K$2:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.63400000000000001</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69199999999999995</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Filtering Method'!$L$2:$L$3</c:f>
+              <c:f>'Filtering Method'!$L$2:$L$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.5499999999999986</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4166666666666578</c:v>
+                  <c:v>0.43333333333333002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40000000000000774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -342,11 +376,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="126964864"/>
-        <c:axId val="126966400"/>
+        <c:axId val="82398208"/>
+        <c:axId val="84817792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126964864"/>
+        <c:axId val="82398208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -356,12 +390,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126966400"/>
+        <c:crossAx val="84817792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126966400"/>
+        <c:axId val="84817792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -372,7 +406,247 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126964864"/>
+        <c:crossAx val="82398208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>All Values Plotted</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Filtering Method'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Density</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.21436373578302712"/>
+                  <c:y val="0.10237058909303004"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Filtering Method'!$O$3:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69199999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Filtering Method'!$P$3:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.60000000000000053</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54999999999998384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50000000000001155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44999999999999485</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50000000000001155</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34999999999998366</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45000000000001705</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44999999999999485</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30000000000001137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="43355136"/>
+        <c:axId val="43352832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="43355136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Optical Density</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43352832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="43352832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cell Density</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43355136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -393,16 +667,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>200810</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>125281</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>380104</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>62528</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>505610</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>125281</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>75304</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>62528</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -416,6 +690,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>591670</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>13448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1528,10 +1832,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1539,7 +1843,7 @@
     <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="10">
         <v>42320</v>
       </c>
@@ -1558,8 +1862,11 @@
       <c r="M1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1592,8 +1899,14 @@
         <f>I8</f>
         <v>4.9999999999994493E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1619,19 +1932,28 @@
       <c r="H3" t="s">
         <v>38</v>
       </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
       <c r="K3">
         <v>0.63400000000000001</v>
       </c>
       <c r="L3">
-        <f>G15</f>
-        <v>0.4166666666666578</v>
+        <f>H15</f>
+        <v>0.43333333333333002</v>
       </c>
       <c r="M3">
-        <f>G16</f>
-        <v>2.8867513459484521E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <f>H16</f>
+        <v>7.6376261582610933E-2</v>
+      </c>
+      <c r="O3">
+        <v>0.83</v>
+      </c>
+      <c r="P3">
+        <v>0.60000000000000053</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1662,8 +1984,25 @@
         <f>H4/0.02</f>
         <v>0.60000000000000053</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="L4">
+        <f>G23</f>
+        <v>0.40000000000000774</v>
+      </c>
+      <c r="M4">
+        <f>G24</f>
+        <v>8.6602540378440729E-2</v>
+      </c>
+      <c r="O4">
+        <v>0.83</v>
+      </c>
+      <c r="P4">
+        <v>0.54999999999998384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1694,8 +2033,14 @@
         <f t="shared" ref="I5:I6" si="2">H5/0.02</f>
         <v>0.54999999999998384</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <v>0.83</v>
+      </c>
+      <c r="P5">
+        <v>0.50000000000001155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1726,8 +2071,14 @@
         <f t="shared" si="2"/>
         <v>0.50000000000001155</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O6">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="P6">
+        <v>0.44999999999999485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>40</v>
       </c>
@@ -1743,8 +2094,14 @@
         <f>AVERAGE(I4:I6)</f>
         <v>0.5499999999999986</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O7">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="P7">
+        <v>0.50000000000001155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>41</v>
       </c>
@@ -1760,8 +2117,22 @@
         <f>STDEV(I4:I6)</f>
         <v>4.9999999999994493E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O8">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="P8">
+        <v>0.34999999999998366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O9">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="P9">
+        <v>0.45000000000001705</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>42326</v>
       </c>
@@ -1771,8 +2142,14 @@
       <c r="C10">
         <v>0.63400000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O10">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="P10">
+        <v>0.44999999999999485</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1785,17 +2162,26 @@
       <c r="D11" s="10">
         <v>42331</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="10">
+        <v>42339</v>
+      </c>
+      <c r="F11" t="s">
         <v>39</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>38</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O11">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="P11">
+        <v>0.30000000000001137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1809,19 +2195,22 @@
         <v>2.806</v>
       </c>
       <c r="E12">
-        <f>C12-B12</f>
-        <v>1.2000000000000011E-2</v>
+        <v>2.806</v>
       </c>
       <c r="F12">
-        <f>E12-$G$3</f>
-        <v>8.0000000000000071E-3</v>
+        <f>E12-B12</f>
+        <v>1.2999999999999901E-2</v>
       </c>
       <c r="G12">
-        <f>F12/0.02</f>
-        <v>0.40000000000000036</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <f>F12-$G$3</f>
+        <v>8.999999999999897E-3</v>
+      </c>
+      <c r="H12">
+        <f>G12/0.02</f>
+        <v>0.44999999999999485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1835,19 +2224,22 @@
         <v>2.8010000000000002</v>
       </c>
       <c r="E13">
-        <f>C13-B13</f>
-        <v>1.2999999999999901E-2</v>
+        <v>2.8010000000000002</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F14" si="3">E13-$G$3</f>
-        <v>8.999999999999897E-3</v>
+        <f t="shared" ref="F13:F14" si="3">E13-B13</f>
+        <v>1.4000000000000234E-2</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G13:G14" si="4">F13/0.02</f>
-        <v>0.44999999999999485</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" ref="G13:G14" si="4">F13-$G$3</f>
+        <v>1.0000000000000231E-2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13:H14" si="5">G13/0.02</f>
+        <v>0.50000000000001155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1861,109 +2253,188 @@
         <v>3.0030000000000001</v>
       </c>
       <c r="E14">
-        <f>C14-B14</f>
-        <v>1.1999999999999567E-2</v>
+        <v>3.0009999999999999</v>
       </c>
       <c r="F14">
         <f t="shared" si="3"/>
-        <v>7.999999999999563E-3</v>
+        <v>1.0999999999999677E-2</v>
       </c>
       <c r="G14">
         <f t="shared" si="4"/>
-        <v>0.39999999999997815</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>6.9999999999996732E-3</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="5"/>
+        <v>0.34999999999998366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="E15">
-        <f>AVERAGE(E12:E14)</f>
-        <v>1.233333333333316E-2</v>
-      </c>
       <c r="F15">
         <f>AVERAGE(F12:F14)</f>
-        <v>8.3333333333331563E-3</v>
+        <v>1.2666666666666604E-2</v>
       </c>
       <c r="G15">
         <f>AVERAGE(G12:G14)</f>
-        <v>0.4166666666666578</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8.6666666666666003E-3</v>
+      </c>
+      <c r="H15">
+        <f>AVERAGE(H12:H14)</f>
+        <v>0.43333333333333002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>41</v>
       </c>
-      <c r="E16">
-        <f>STDEV(E12:E14)</f>
-        <v>5.7735026918969042E-4</v>
-      </c>
       <c r="F16">
         <f>STDEV(F12:F14)</f>
-        <v>5.7735026918969042E-4</v>
+        <v>1.5275252316522146E-3</v>
       </c>
       <c r="G16">
         <f>STDEV(G12:G14)</f>
-        <v>2.8867513459484521E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.5275252316522146E-3</v>
+      </c>
+      <c r="H16">
+        <f>STDEV(H12:H14)</f>
+        <v>7.6376261582610933E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>42327</v>
       </c>
       <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <v>0.69199999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C19" s="10">
         <v>42331</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" s="10">
+        <v>42339</v>
+      </c>
+      <c r="E19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>1</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>2.8159999999999998</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>2.831</v>
       </c>
-      <c r="D19">
-        <f>C19-B19</f>
-        <v>1.5000000000000124E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="D20">
+        <v>2.8290000000000002</v>
+      </c>
+      <c r="E20">
+        <f>D20-B20</f>
+        <v>1.3000000000000345E-2</v>
+      </c>
+      <c r="F20">
+        <f>E20-$G$3</f>
+        <v>9.0000000000003411E-3</v>
+      </c>
+      <c r="G20">
+        <f>F20/0.02</f>
+        <v>0.45000000000001705</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>2</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>3.2570000000000001</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>3.2709999999999999</v>
       </c>
-      <c r="D20">
-        <f t="shared" ref="D20:D21" si="5">C20-B20</f>
-        <v>1.399999999999979E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="D21">
+        <v>3.27</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ref="E21:E22" si="6">D21-B21</f>
+        <v>1.2999999999999901E-2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21:F22" si="7">E21-$G$3</f>
+        <v>8.999999999999897E-3</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:G24" si="8">F21/0.02</f>
+        <v>0.44999999999999485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>3</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>3.3109999999999999</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>3.3210000000000002</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="5"/>
+      <c r="D22">
+        <v>3.3210000000000002</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="6"/>
         <v>1.0000000000000231E-2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="7"/>
+        <v>6.0000000000002274E-3</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="8"/>
+        <v>0.30000000000001137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23">
+        <f>AVERAGE(F20:F22)</f>
+        <v>8.0000000000001546E-3</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="8"/>
+        <v>0.40000000000000774</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24">
+        <f>STDEV(F20:F22)</f>
+        <v>1.7320508075688147E-3</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="8"/>
+        <v>8.6602540378440729E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Experimental Results/cell dry weight measurements.xlsx
+++ b/Experimental Results/cell dry weight measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Trial 1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -164,6 +164,33 @@
   </si>
   <si>
     <t>Cell Dens</t>
+  </si>
+  <si>
+    <t>Uptake</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Yield</t>
+  </si>
+  <si>
+    <t>DT Yield</t>
+  </si>
+  <si>
+    <t>Acetate</t>
+  </si>
+  <si>
+    <t>Methanol</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Predit G</t>
+  </si>
+  <si>
+    <t>Predict Y</t>
   </si>
 </sst>
 </file>
@@ -376,11 +403,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="82398208"/>
-        <c:axId val="84817792"/>
+        <c:axId val="114740608"/>
+        <c:axId val="41960576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82398208"/>
+        <c:axId val="114740608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -390,12 +417,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84817792"/>
+        <c:crossAx val="41960576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84817792"/>
+        <c:axId val="41960576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -406,7 +433,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82398208"/>
+        <c:crossAx val="114740608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -578,11 +605,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="43355136"/>
-        <c:axId val="43352832"/>
+        <c:axId val="42001920"/>
+        <c:axId val="42003840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43355136"/>
+        <c:axId val="42001920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -611,12 +638,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43352832"/>
+        <c:crossAx val="42003840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="43352832"/>
+        <c:axId val="42003840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,7 +673,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43355136"/>
+        <c:crossAx val="42001920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1021,21 +1048,21 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +1076,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1090,7 +1117,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1135,7 +1162,7 @@
         <v>0.35999999999997812</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1184,7 +1211,7 @@
         <v>0.50699999999999967</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1233,7 +1260,7 @@
         <v>0.60299999999999976</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1282,7 +1309,7 @@
         <v>0.74800000000000111</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1330,7 +1357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1380,7 +1407,7 @@
         <v>0.48603351955306129</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1422,19 +1449,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>C8-K8</f>
         <v>0.59575000000000244</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="O16">
         <f>AVERAGE(O4:O7)</f>
         <v>0.13080932749067697</v>
       </c>
     </row>
-    <row r="17" spans="15:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O17" t="s">
         <v>12</v>
       </c>
@@ -1452,18 +1479,18 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1477,7 +1504,7 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1500,7 +1527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1526,7 +1553,7 @@
         <v>0.76000000000000512</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1552,7 +1579,7 @@
         <v>0.96000000000000085</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1578,7 +1605,7 @@
         <v>1.6600000000000037</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1604,7 +1631,7 @@
         <v>2.1399999999999864</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1638,7 +1665,7 @@
       <c r="J8" s="5"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1673,7 +1700,7 @@
       <c r="J9" s="5"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1714,11 +1741,11 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1832,18 +1859,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="10">
         <v>42320</v>
       </c>
@@ -1866,7 +1893,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1906,7 +1933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1953,7 +1980,7 @@
         <v>0.60000000000000053</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2002,7 +2029,7 @@
         <v>0.54999999999998384</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2040,7 +2067,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2078,7 +2105,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>40</v>
       </c>
@@ -2101,7 +2128,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>41</v>
       </c>
@@ -2124,7 +2151,7 @@
         <v>0.34999999999998366</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="O9">
         <v>0.69199999999999995</v>
       </c>
@@ -2132,7 +2159,7 @@
         <v>0.45000000000001705</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>42326</v>
       </c>
@@ -2149,7 +2176,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -2181,7 +2208,7 @@
         <v>0.30000000000001137</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2210,7 +2237,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2239,7 +2266,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2268,7 +2295,7 @@
         <v>0.34999999999998366</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>40</v>
       </c>
@@ -2285,7 +2312,7 @@
         <v>0.43333333333333002</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>41</v>
       </c>
@@ -2302,7 +2329,7 @@
         <v>7.6376261582610933E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>42327</v>
       </c>
@@ -2313,7 +2340,7 @@
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>36</v>
       </c>
@@ -2333,7 +2360,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2359,7 +2386,7 @@
         <v>0.45000000000001705</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2385,7 +2412,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2410,8 +2437,26 @@
         <f t="shared" si="8"/>
         <v>0.30000000000001137</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="X22" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>46</v>
       </c>
@@ -2423,8 +2468,32 @@
         <f t="shared" si="8"/>
         <v>0.40000000000000774</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="W23" t="s">
+        <v>53</v>
+      </c>
+      <c r="X23">
+        <v>7</v>
+      </c>
+      <c r="Y23">
+        <v>2.3E-2</v>
+      </c>
+      <c r="Z23">
+        <f>Y23*1000/X23</f>
+        <v>3.2857142857142856</v>
+      </c>
+      <c r="AA23">
+        <f>Z23/LN(2)</f>
+        <v>4.7402837057780225</v>
+      </c>
+      <c r="AB23">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="AC23">
+        <f>AB23/X23*1000</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>42</v>
       </c>
@@ -2435,6 +2504,56 @@
       <c r="G24">
         <f t="shared" si="8"/>
         <v>8.6602540378440729E-2</v>
+      </c>
+      <c r="W24" t="s">
+        <v>54</v>
+      </c>
+      <c r="X24">
+        <v>20</v>
+      </c>
+      <c r="Y24">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" ref="Z24:Z25" si="9">Y24*1000/X24</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" ref="AA24:AA25" si="10">Z24/LN(2)</f>
+        <v>7.0692057003559219</v>
+      </c>
+      <c r="AB24">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" ref="AC24:AC25" si="11">AB24/X24*1000</f>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="W25" t="s">
+        <v>55</v>
+      </c>
+      <c r="X25">
+        <v>11.6</v>
+      </c>
+      <c r="Y25">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="10"/>
+        <v>3.6067376022224087</v>
+      </c>
+      <c r="AB25">
+        <v>0.03</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="11"/>
+        <v>2.5862068965517242</v>
       </c>
     </row>
   </sheetData>

--- a/Experimental Results/cell dry weight measurements.xlsx
+++ b/Experimental Results/cell dry weight measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835" activeTab="3"/>
+    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Trial 1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="58">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -325,7 +325,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -403,11 +402,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="114740608"/>
-        <c:axId val="41960576"/>
+        <c:axId val="137385472"/>
+        <c:axId val="137387008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="114740608"/>
+        <c:axId val="137385472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -417,12 +416,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41960576"/>
+        <c:crossAx val="137387008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41960576"/>
+        <c:axId val="137387008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -433,7 +432,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114740608"/>
+        <c:crossAx val="137385472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -605,11 +604,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="42001920"/>
-        <c:axId val="42003840"/>
+        <c:axId val="137407872"/>
+        <c:axId val="137565696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42001920"/>
+        <c:axId val="137407872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -638,12 +637,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42003840"/>
+        <c:crossAx val="137565696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42003840"/>
+        <c:axId val="137565696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -673,7 +672,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42001920"/>
+        <c:crossAx val="137407872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1044,25 +1043,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1076,7 +1075,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1117,7 +1116,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1162,7 +1161,7 @@
         <v>0.35999999999997812</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1211,7 +1210,7 @@
         <v>0.50699999999999967</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1260,7 +1259,7 @@
         <v>0.60299999999999976</v>
       </c>
     </row>
-    <row r="7" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1309,7 +1308,7 @@
         <v>0.74800000000000111</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1357,7 +1356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1407,7 +1406,7 @@
         <v>0.48603351955306129</v>
       </c>
     </row>
-    <row r="10" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1449,19 +1448,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>C8-K8</f>
         <v>0.59575000000000244</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O16">
         <f>AVERAGE(O4:O7)</f>
         <v>0.13080932749067697</v>
       </c>
     </row>
-    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="15:15" ht="15" x14ac:dyDescent="0.25">
       <c r="O17" t="s">
         <v>12</v>
       </c>
@@ -1473,24 +1472,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1504,7 +1503,7 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1526,8 +1525,26 @@
       <c r="G3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1552,8 +1569,28 @@
         <f>F4/0.05</f>
         <v>0.76000000000000512</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <f>D4</f>
+        <v>13.16</v>
+      </c>
+      <c r="L4">
+        <f>K4-B4</f>
+        <v>3.8000000000000256E-2</v>
+      </c>
+      <c r="M4">
+        <f>L4/0.05</f>
+        <v>0.76000000000000512</v>
+      </c>
+      <c r="N4">
+        <f>L4-'Salts Calculations'!D14*'Trial 1'!P4</f>
+        <v>3.8000000000000256E-2</v>
+      </c>
+      <c r="O4">
+        <f>N4/0.05</f>
+        <v>0.76000000000000512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1578,8 +1615,32 @@
         <f t="shared" ref="G5:G7" si="2">F5/0.05</f>
         <v>0.96000000000000085</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <f t="shared" ref="K5:K7" si="3">D5</f>
+        <v>13.141999999999999</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L7" si="4">K5-B5</f>
+        <v>4.8000000000000043E-2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M7" si="5">L5/0.05</f>
+        <v>0.96000000000000085</v>
+      </c>
+      <c r="N5">
+        <f>L5-'Salts Calculations'!D14*'Trial 1'!P5</f>
+        <v>3.1398851349599452E-2</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O7" si="6">N5/0.05</f>
+        <v>0.62797702699198898</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P7" si="7">C5-K5</f>
+        <v>0.96799999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1604,8 +1665,32 @@
         <f t="shared" si="2"/>
         <v>1.6600000000000037</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>13.137</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>8.3000000000000185E-2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>1.6600000000000037</v>
+      </c>
+      <c r="N6">
+        <f>L6-'Salts Calculations'!D14*'Trial 1'!P6</f>
+        <v>6.3255438587393562E-2</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="6"/>
+        <v>1.2651087717478711</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="7"/>
+        <v>2.0679999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1630,8 +1715,32 @@
         <f t="shared" si="2"/>
         <v>2.1399999999999864</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>13.215</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>0.10699999999999932</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>2.1399999999999864</v>
+      </c>
+      <c r="N7">
+        <f>L7-'Salts Calculations'!D14*'Trial 1'!P7</f>
+        <v>8.2507575561143964E-2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="6"/>
+        <v>1.6501515112228793</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="7"/>
+        <v>2.8359999999999985</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1640,32 +1749,46 @@
         <v>13.0945</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:G8" si="3">AVERAGE(C4:C7)</f>
+        <f t="shared" ref="C8:G8" si="8">AVERAGE(C4:C7)</f>
         <v>14.822749999999999</v>
       </c>
       <c r="D8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>13.163499999999999</v>
       </c>
       <c r="E8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.7282499999999996</v>
       </c>
       <c r="F8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6.899999999999995E-2</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.379999999999999</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="5"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <f t="shared" ref="K8:M8" si="9">AVERAGE(K4:K7)</f>
+        <v>13.163499999999999</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="9"/>
+        <v>6.899999999999995E-2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="9"/>
+        <v>1.379999999999999</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1674,23 +1797,23 @@
         <v>2.9320072760255257E-2</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:G9" si="4">STDEV(C4:C7)</f>
+        <f t="shared" ref="C9:G9" si="10">STDEV(C4:C7)</f>
         <v>0.99476642987185615</v>
       </c>
       <c r="D9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.5725807665234498E-2</v>
       </c>
       <c r="E9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.0029494420624259</v>
       </c>
       <c r="F9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.1843366656180969E-2</v>
       </c>
       <c r="G9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.63686733312361965</v>
       </c>
       <c r="I9" s="3">
@@ -1698,9 +1821,24 @@
         <v>1.5081967213114742</v>
       </c>
       <c r="J9" s="5"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K9">
+        <f t="shared" ref="K9:M9" si="11">STDEV(K4:K7)</f>
+        <v>3.5725807665234498E-2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="11"/>
+        <v>3.1843366656180969E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="11"/>
+        <v>0.63686733312361965</v>
+      </c>
+      <c r="O9" s="8">
+        <f>M8/D1</f>
+        <v>1.5081967213114742</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1726,7 +1864,21 @@
         <v>12</v>
       </c>
       <c r="J10" s="5"/>
-      <c r="O10" s="4"/>
+      <c r="K10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1738,14 +1890,14 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1862,15 +2014,15 @@
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="10">
         <v>42320</v>
       </c>
@@ -1893,7 +2045,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1933,7 +2085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1980,7 +2132,7 @@
         <v>0.60000000000000053</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2029,7 +2181,7 @@
         <v>0.54999999999998384</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2067,7 +2219,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2105,7 +2257,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>40</v>
       </c>
@@ -2128,7 +2280,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>41</v>
       </c>
@@ -2151,7 +2303,7 @@
         <v>0.34999999999998366</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O9">
         <v>0.69199999999999995</v>
       </c>
@@ -2159,7 +2311,7 @@
         <v>0.45000000000001705</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>42326</v>
       </c>
@@ -2176,7 +2328,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -2208,7 +2360,7 @@
         <v>0.30000000000001137</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2237,7 +2389,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2266,7 +2418,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2295,7 +2447,7 @@
         <v>0.34999999999998366</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>40</v>
       </c>
@@ -2312,7 +2464,7 @@
         <v>0.43333333333333002</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>41</v>
       </c>
@@ -2329,7 +2481,7 @@
         <v>7.6376261582610933E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>42327</v>
       </c>
@@ -2340,7 +2492,7 @@
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>36</v>
       </c>
@@ -2360,7 +2512,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2386,7 +2538,7 @@
         <v>0.45000000000001705</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2412,7 +2564,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2456,7 +2608,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>46</v>
       </c>
@@ -2493,7 +2645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>42</v>
       </c>
@@ -2530,7 +2682,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="W25" t="s">
         <v>55</v>
       </c>

--- a/Experimental Results/cell dry weight measurements.xlsx
+++ b/Experimental Results/cell dry weight measurements.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" activeTab="3"/>
+    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Trial 1" sheetId="1" r:id="rId1"/>
     <sheet name="Trial 2" sheetId="2" r:id="rId2"/>
     <sheet name="Salts Calculations" sheetId="3" r:id="rId3"/>
     <sheet name="Filtering Method" sheetId="4" r:id="rId4"/>
+    <sheet name="Filtering and Spin" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="70">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -191,13 +192,49 @@
   </si>
   <si>
     <t>Predict Y</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>End Wt (g)</t>
+  </si>
+  <si>
+    <t>Start Wt (g)</t>
+  </si>
+  <si>
+    <t>Control Adjust</t>
+  </si>
+  <si>
+    <t>Final Wt (g)</t>
+  </si>
+  <si>
+    <t>Control 1</t>
+  </si>
+  <si>
+    <t>Control 2</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Average Ctrl.</t>
+  </si>
+  <si>
+    <t>Ctrl. Stdev.</t>
+  </si>
+  <si>
+    <t>Final Density (g/L)</t>
+  </si>
+  <si>
+    <t>Local Density (g/L)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,8 +242,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +261,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -281,6 +332,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,11 +459,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137385472"/>
-        <c:axId val="137387008"/>
+        <c:axId val="131544960"/>
+        <c:axId val="131546496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137385472"/>
+        <c:axId val="131544960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -416,12 +473,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137387008"/>
+        <c:crossAx val="131546496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137387008"/>
+        <c:axId val="131546496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -432,7 +489,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137385472"/>
+        <c:crossAx val="131544960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -479,7 +536,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -604,11 +660,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137407872"/>
-        <c:axId val="137565696"/>
+        <c:axId val="131575808"/>
+        <c:axId val="131577728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137407872"/>
+        <c:axId val="131575808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -630,19 +686,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137565696"/>
+        <c:crossAx val="131577728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137565696"/>
+        <c:axId val="131577728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -665,18 +720,156 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137407872"/>
+        <c:crossAx val="131575808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.3675726159230096"/>
+                  <c:y val="-0.20096821230679499"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Filtering and Spin'!$C$8:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Filtering and Spin'!$H$8:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.30999999999998806</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30999999999998806</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="81296384"/>
+        <c:axId val="81293312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="81296384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="81293312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="81293312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="81296384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -746,6 +939,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>17930</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>49306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>484094</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>103095</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2013,7 +2241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
@@ -2712,4 +2940,404 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>42341</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="D2" s="12">
+        <v>3.0960000000000001</v>
+      </c>
+      <c r="E2" s="12">
+        <v>3.1190000000000002</v>
+      </c>
+      <c r="F2" s="12">
+        <f>E2-$F$7</f>
+        <v>3.1115000000000004</v>
+      </c>
+      <c r="G2" s="12">
+        <f>F2-D2</f>
+        <v>1.5500000000000291E-2</v>
+      </c>
+      <c r="H2" s="12">
+        <f>G2/0.05</f>
+        <v>0.31000000000000583</v>
+      </c>
+      <c r="I2" s="12">
+        <f>H2/C2</f>
+        <v>0.49206349206350131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>42341</v>
+      </c>
+      <c r="B3" s="12">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="D3" s="12">
+        <v>2.5110000000000001</v>
+      </c>
+      <c r="E3" s="12">
+        <v>2.5329999999999999</v>
+      </c>
+      <c r="F3" s="12">
+        <f t="shared" ref="F3:F5" si="0">E3-$F$7</f>
+        <v>2.5255000000000001</v>
+      </c>
+      <c r="G3" s="12">
+        <f t="shared" ref="G3:G5" si="1">F3-D3</f>
+        <v>1.4499999999999957E-2</v>
+      </c>
+      <c r="H3" s="12">
+        <f t="shared" ref="H3:H11" si="2">G3/0.05</f>
+        <v>0.28999999999999915</v>
+      </c>
+      <c r="I3" s="12">
+        <f t="shared" ref="I3:I5" si="3">H3/C3</f>
+        <v>0.46031746031745896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>42341</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0.626</v>
+      </c>
+      <c r="D4">
+        <v>2.5659999999999998</v>
+      </c>
+      <c r="E4">
+        <v>2.593</v>
+      </c>
+      <c r="F4" s="13">
+        <f t="shared" si="0"/>
+        <v>2.5854999999999997</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1.9499999999999851E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0.38999999999999702</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>0.62300319488817413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>42341</v>
+      </c>
+      <c r="B5" s="12">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.626</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2.673</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2.6930000000000001</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="0"/>
+        <v>2.6855000000000002</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="1"/>
+        <v>1.2500000000000178E-2</v>
+      </c>
+      <c r="H5" s="12">
+        <f t="shared" si="2"/>
+        <v>0.25000000000000355</v>
+      </c>
+      <c r="I5" s="12">
+        <f t="shared" si="3"/>
+        <v>0.39936102236422294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>42342</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2.88</v>
+      </c>
+      <c r="E6" s="13">
+        <v>2.887</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>42342</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="13">
+        <v>2.6019999999999999</v>
+      </c>
+      <c r="E7" s="13">
+        <v>2.61</v>
+      </c>
+      <c r="F7" s="13">
+        <f>AVERAGE((E6-D6),(E7-D7))</f>
+        <v>7.5000000000000622E-3</v>
+      </c>
+      <c r="G7" s="13">
+        <f>STDEV((E6-D6),(E7-D7))</f>
+        <v>7.0710678118646967E-4</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>42343</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="E8" s="13">
+        <v>2.8559999999999999</v>
+      </c>
+      <c r="F8" s="13">
+        <f t="shared" ref="F8:F11" si="4">E8-$F$7</f>
+        <v>2.8484999999999996</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G11" si="5">F8-D8</f>
+        <v>1.5499999999999403E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0.30999999999998806</v>
+      </c>
+      <c r="I8">
+        <f>H8/C8</f>
+        <v>0.48895899053625874</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>42343</v>
+      </c>
+      <c r="B9" s="13">
+        <v>2</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2.8620000000000001</v>
+      </c>
+      <c r="E9" s="13">
+        <v>2.8849999999999998</v>
+      </c>
+      <c r="F9" s="13">
+        <f t="shared" si="4"/>
+        <v>2.8774999999999995</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="5"/>
+        <v>1.5499999999999403E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.30999999999998806</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9:I11" si="6">H9/C9</f>
+        <v>0.48895899053625874</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>42345</v>
+      </c>
+      <c r="B10" s="13">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="D10" s="13">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="E10" s="13">
+        <v>3.028</v>
+      </c>
+      <c r="F10" s="13">
+        <f t="shared" si="4"/>
+        <v>3.0205000000000002</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="5"/>
+        <v>1.8500000000000405E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.3700000000000081</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="6"/>
+        <v>0.55891238670696086</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <v>42345</v>
+      </c>
+      <c r="B11" s="13">
+        <v>2</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="D11" s="13">
+        <v>3.1480000000000001</v>
+      </c>
+      <c r="E11" s="13">
+        <v>3.173</v>
+      </c>
+      <c r="F11" s="13">
+        <f t="shared" si="4"/>
+        <v>3.1654999999999998</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>1.7499999999999627E-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0.34999999999999254</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="6"/>
+        <v>0.52870090634439959</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>42346</v>
+      </c>
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>42346</v>
+      </c>
+      <c r="B13" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>42347</v>
+      </c>
+      <c r="B14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>42347</v>
+      </c>
+      <c r="B15" s="13">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Experimental Results/cell dry weight measurements.xlsx
+++ b/Experimental Results/cell dry weight measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" activeTab="4"/>
+    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Trial 1" sheetId="1" r:id="rId1"/>
@@ -459,11 +459,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="131544960"/>
-        <c:axId val="131546496"/>
+        <c:axId val="79001472"/>
+        <c:axId val="79003008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="131544960"/>
+        <c:axId val="79001472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -473,12 +473,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131546496"/>
+        <c:crossAx val="79003008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="131546496"/>
+        <c:axId val="79003008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -489,7 +489,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131544960"/>
+        <c:crossAx val="79001472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -660,11 +660,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="131575808"/>
-        <c:axId val="131577728"/>
+        <c:axId val="41211392"/>
+        <c:axId val="41213312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="131575808"/>
+        <c:axId val="41211392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -692,12 +692,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131577728"/>
+        <c:crossAx val="41213312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="131577728"/>
+        <c:axId val="41213312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -726,7 +726,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131575808"/>
+        <c:crossAx val="41211392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -779,8 +779,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.3675726159230096"/>
-                  <c:y val="-0.20096821230679499"/>
+                  <c:x val="-0.43199805248818512"/>
+                  <c:y val="7.6497730043290108E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -826,11 +826,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="81296384"/>
-        <c:axId val="81293312"/>
+        <c:axId val="42777600"/>
+        <c:axId val="52495104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81296384"/>
+        <c:axId val="42777600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -840,12 +840,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81293312"/>
+        <c:crossAx val="52495104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81293312"/>
+        <c:axId val="52495104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -856,20 +856,11 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81296384"/>
+        <c:crossAx val="42777600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -951,16 +942,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>17930</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>49306</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>286871</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>94130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>484094</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>103095</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>338418</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>147919</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1275,21 +1266,21 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +1294,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1344,7 +1335,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1389,7 +1380,7 @@
         <v>0.35999999999997812</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1438,7 +1429,7 @@
         <v>0.50699999999999967</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1487,7 +1478,7 @@
         <v>0.60299999999999976</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1536,7 +1527,7 @@
         <v>0.74800000000000111</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1584,7 +1575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1634,7 +1625,7 @@
         <v>0.48603351955306129</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1676,19 +1667,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>C8-K8</f>
         <v>0.59575000000000244</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="O16">
         <f>AVERAGE(O4:O7)</f>
         <v>0.13080932749067697</v>
       </c>
     </row>
-    <row r="17" spans="15:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O17" t="s">
         <v>12</v>
       </c>
@@ -1706,18 +1697,18 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1731,7 +1722,7 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1772,7 +1763,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1818,7 +1809,7 @@
         <v>0.76000000000000512</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1868,7 +1859,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1918,7 +1909,7 @@
         <v>2.0679999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1968,7 +1959,7 @@
         <v>2.8359999999999985</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2016,7 +2007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2066,7 +2057,7 @@
         <v>1.5081967213114742</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2121,11 +2112,11 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -2245,12 +2236,12 @@
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="10">
         <v>42320</v>
       </c>
@@ -2273,7 +2264,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -2313,7 +2304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -2360,7 +2351,7 @@
         <v>0.60000000000000053</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2409,7 +2400,7 @@
         <v>0.54999999999998384</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2447,7 +2438,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2485,7 +2476,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>40</v>
       </c>
@@ -2508,7 +2499,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>41</v>
       </c>
@@ -2531,7 +2522,7 @@
         <v>0.34999999999998366</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="O9">
         <v>0.69199999999999995</v>
       </c>
@@ -2539,7 +2530,7 @@
         <v>0.45000000000001705</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>42326</v>
       </c>
@@ -2556,7 +2547,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -2588,7 +2579,7 @@
         <v>0.30000000000001137</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2617,7 +2608,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2646,7 +2637,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2675,7 +2666,7 @@
         <v>0.34999999999998366</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>40</v>
       </c>
@@ -2692,7 +2683,7 @@
         <v>0.43333333333333002</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>41</v>
       </c>
@@ -2709,7 +2700,7 @@
         <v>7.6376261582610933E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>42327</v>
       </c>
@@ -2720,7 +2711,7 @@
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>36</v>
       </c>
@@ -2740,7 +2731,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2766,7 +2757,7 @@
         <v>0.45000000000001705</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2792,7 +2783,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2836,7 +2827,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>46</v>
       </c>
@@ -2873,7 +2864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>42</v>
       </c>
@@ -2910,7 +2901,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="W25" t="s">
         <v>55</v>
       </c>
@@ -2947,16 +2938,16 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -3251,24 +3242,21 @@
       <c r="D10" s="13">
         <v>3.0019999999999998</v>
       </c>
-      <c r="E10" s="13">
-        <v>3.028</v>
-      </c>
       <c r="F10" s="13">
         <f t="shared" si="4"/>
-        <v>3.0205000000000002</v>
+        <v>-7.5000000000000622E-3</v>
       </c>
       <c r="G10">
         <f t="shared" si="5"/>
-        <v>1.8500000000000405E-2</v>
+        <v>-3.0095000000000001</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>0.3700000000000081</v>
+        <v>-60.19</v>
       </c>
       <c r="I10">
         <f t="shared" si="6"/>
-        <v>0.55891238670696086</v>
+        <v>-90.9214501510574</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3284,24 +3272,21 @@
       <c r="D11" s="13">
         <v>3.1480000000000001</v>
       </c>
-      <c r="E11" s="13">
-        <v>3.173</v>
-      </c>
       <c r="F11" s="13">
         <f t="shared" si="4"/>
-        <v>3.1654999999999998</v>
+        <v>-7.5000000000000622E-3</v>
       </c>
       <c r="G11">
         <f t="shared" si="5"/>
-        <v>1.7499999999999627E-2</v>
+        <v>-3.1555</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>0.34999999999999254</v>
+        <v>-63.11</v>
       </c>
       <c r="I11">
         <f t="shared" si="6"/>
-        <v>0.52870090634439959</v>
+        <v>-95.332326283987911</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">

--- a/Experimental Results/cell dry weight measurements.xlsx
+++ b/Experimental Results/cell dry weight measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835" activeTab="4"/>
+    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Trial 1" sheetId="1" r:id="rId1"/>
@@ -459,11 +459,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="79001472"/>
-        <c:axId val="79003008"/>
+        <c:axId val="133527424"/>
+        <c:axId val="133528960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79001472"/>
+        <c:axId val="133527424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -473,12 +473,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79003008"/>
+        <c:crossAx val="133528960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79003008"/>
+        <c:axId val="133528960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -489,7 +489,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79001472"/>
+        <c:crossAx val="133527424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -660,11 +660,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="41211392"/>
-        <c:axId val="41213312"/>
+        <c:axId val="134746112"/>
+        <c:axId val="134748032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41211392"/>
+        <c:axId val="134746112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -692,12 +692,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41213312"/>
+        <c:crossAx val="134748032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41213312"/>
+        <c:axId val="134748032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -726,7 +726,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41211392"/>
+        <c:crossAx val="134746112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -788,30 +788,42 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Filtering and Spin'!$C$8:$C$9</c:f>
+              <c:f>'Filtering and Spin'!$C$8:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.63400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.63400000000000001</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Filtering and Spin'!$H$8:$H$9</c:f>
+              <c:f>'Filtering and Spin'!$H$8:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.30999999999998806</c:v>
+                  <c:v>0.32000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30999999999998806</c:v>
+                  <c:v>0.29999999999999361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38000000000000256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27999999999999581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -826,11 +838,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="42777600"/>
-        <c:axId val="52495104"/>
+        <c:axId val="141257728"/>
+        <c:axId val="141259520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42777600"/>
+        <c:axId val="141257728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -840,12 +852,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52495104"/>
+        <c:crossAx val="141259520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52495104"/>
+        <c:axId val="141259520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -856,7 +868,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42777600"/>
+        <c:crossAx val="141257728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1266,21 +1278,21 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1294,7 +1306,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1335,7 +1347,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1380,7 +1392,7 @@
         <v>0.35999999999997812</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1429,7 +1441,7 @@
         <v>0.50699999999999967</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1478,7 +1490,7 @@
         <v>0.60299999999999976</v>
       </c>
     </row>
-    <row r="7" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1527,7 +1539,7 @@
         <v>0.74800000000000111</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1575,7 +1587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1625,7 +1637,7 @@
         <v>0.48603351955306129</v>
       </c>
     </row>
-    <row r="10" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1667,19 +1679,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>C8-K8</f>
         <v>0.59575000000000244</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O16">
         <f>AVERAGE(O4:O7)</f>
         <v>0.13080932749067697</v>
       </c>
     </row>
-    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O17" t="s">
         <v>12</v>
       </c>
@@ -1697,18 +1709,18 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1722,7 +1734,7 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1763,7 +1775,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1809,7 +1821,7 @@
         <v>0.76000000000000512</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1859,7 +1871,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1909,7 +1921,7 @@
         <v>2.0679999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1959,7 +1971,7 @@
         <v>2.8359999999999985</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2007,7 +2019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2057,7 +2069,7 @@
         <v>1.5081967213114742</v>
       </c>
     </row>
-    <row r="10" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2112,11 +2124,11 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -2236,12 +2248,12 @@
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="10">
         <v>42320</v>
       </c>
@@ -2264,7 +2276,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -2304,7 +2316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -2351,7 +2363,7 @@
         <v>0.60000000000000053</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2400,7 +2412,7 @@
         <v>0.54999999999998384</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2438,7 +2450,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2476,7 +2488,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>40</v>
       </c>
@@ -2499,7 +2511,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>41</v>
       </c>
@@ -2522,7 +2534,7 @@
         <v>0.34999999999998366</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O9">
         <v>0.69199999999999995</v>
       </c>
@@ -2530,7 +2542,7 @@
         <v>0.45000000000001705</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>42326</v>
       </c>
@@ -2547,7 +2559,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -2579,7 +2591,7 @@
         <v>0.30000000000001137</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2608,7 +2620,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2637,7 +2649,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2666,7 +2678,7 @@
         <v>0.34999999999998366</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>40</v>
       </c>
@@ -2683,7 +2695,7 @@
         <v>0.43333333333333002</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>41</v>
       </c>
@@ -2700,7 +2712,7 @@
         <v>7.6376261582610933E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>42327</v>
       </c>
@@ -2711,7 +2723,7 @@
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>36</v>
       </c>
@@ -2731,7 +2743,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2757,7 +2769,7 @@
         <v>0.45000000000001705</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2783,7 +2795,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2827,7 +2839,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>46</v>
       </c>
@@ -2864,7 +2876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>42</v>
       </c>
@@ -2901,7 +2913,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="W25" t="s">
         <v>55</v>
       </c>
@@ -2938,16 +2950,16 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -2997,19 +3009,19 @@
       </c>
       <c r="F2" s="12">
         <f>E2-$F$7</f>
-        <v>3.1115000000000004</v>
+        <v>3.1100000000000003</v>
       </c>
       <c r="G2" s="12">
         <f>F2-D2</f>
-        <v>1.5500000000000291E-2</v>
+        <v>1.4000000000000234E-2</v>
       </c>
       <c r="H2" s="12">
         <f>G2/0.05</f>
-        <v>0.31000000000000583</v>
+        <v>0.28000000000000469</v>
       </c>
       <c r="I2" s="12">
         <f>H2/C2</f>
-        <v>0.49206349206350131</v>
+        <v>0.44444444444445186</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3030,19 +3042,19 @@
       </c>
       <c r="F3" s="12">
         <f t="shared" ref="F3:F5" si="0">E3-$F$7</f>
-        <v>2.5255000000000001</v>
+        <v>2.524</v>
       </c>
       <c r="G3" s="12">
         <f t="shared" ref="G3:G5" si="1">F3-D3</f>
-        <v>1.4499999999999957E-2</v>
+        <v>1.2999999999999901E-2</v>
       </c>
       <c r="H3" s="12">
         <f t="shared" ref="H3:H11" si="2">G3/0.05</f>
-        <v>0.28999999999999915</v>
+        <v>0.25999999999999801</v>
       </c>
       <c r="I3" s="12">
         <f t="shared" ref="I3:I5" si="3">H3/C3</f>
-        <v>0.46031746031745896</v>
+        <v>0.41269841269840951</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3059,23 +3071,23 @@
         <v>2.5659999999999998</v>
       </c>
       <c r="E4">
-        <v>2.593</v>
+        <v>2.5960000000000001</v>
       </c>
       <c r="F4" s="13">
         <f t="shared" si="0"/>
-        <v>2.5854999999999997</v>
+        <v>2.5869999999999997</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>1.9499999999999851E-2</v>
+        <v>2.0999999999999908E-2</v>
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
-        <v>0.38999999999999702</v>
+        <v>0.41999999999999815</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>0.62300319488817413</v>
+        <v>0.67092651757188204</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3096,19 +3108,19 @@
       </c>
       <c r="F5" s="12">
         <f t="shared" si="0"/>
-        <v>2.6855000000000002</v>
+        <v>2.6840000000000002</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" si="1"/>
-        <v>1.2500000000000178E-2</v>
+        <v>1.1000000000000121E-2</v>
       </c>
       <c r="H5" s="12">
         <f t="shared" si="2"/>
-        <v>0.25000000000000355</v>
+        <v>0.22000000000000242</v>
       </c>
       <c r="I5" s="12">
         <f t="shared" si="3"/>
-        <v>0.39936102236422294</v>
+        <v>0.35143769968051503</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3125,7 +3137,7 @@
         <v>2.88</v>
       </c>
       <c r="E6" s="13">
-        <v>2.887</v>
+        <v>2.8889999999999998</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>66</v>
@@ -3150,15 +3162,15 @@
         <v>2.6019999999999999</v>
       </c>
       <c r="E7" s="13">
-        <v>2.61</v>
+        <v>2.6110000000000002</v>
       </c>
       <c r="F7" s="13">
         <f>AVERAGE((E6-D6),(E7-D7))</f>
-        <v>7.5000000000000622E-3</v>
+        <v>9.000000000000119E-3</v>
       </c>
       <c r="G7" s="13">
         <f>STDEV((E6-D6),(E7-D7))</f>
-        <v>7.0710678118646967E-4</v>
+        <v>3.1401849173675503E-16</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="15"/>
@@ -3177,23 +3189,23 @@
         <v>2.8330000000000002</v>
       </c>
       <c r="E8" s="13">
-        <v>2.8559999999999999</v>
+        <v>2.8580000000000001</v>
       </c>
       <c r="F8" s="13">
         <f t="shared" ref="F8:F11" si="4">E8-$F$7</f>
-        <v>2.8484999999999996</v>
+        <v>2.8490000000000002</v>
       </c>
       <c r="G8">
         <f t="shared" ref="G8:G11" si="5">F8-D8</f>
-        <v>1.5499999999999403E-2</v>
+        <v>1.6000000000000014E-2</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>0.30999999999998806</v>
+        <v>0.32000000000000028</v>
       </c>
       <c r="I8">
         <f>H8/C8</f>
-        <v>0.48895899053625874</v>
+        <v>0.50473186119873859</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3210,23 +3222,23 @@
         <v>2.8620000000000001</v>
       </c>
       <c r="E9" s="13">
-        <v>2.8849999999999998</v>
+        <v>2.8860000000000001</v>
       </c>
       <c r="F9" s="13">
         <f t="shared" si="4"/>
-        <v>2.8774999999999995</v>
+        <v>2.8769999999999998</v>
       </c>
       <c r="G9">
         <f t="shared" si="5"/>
-        <v>1.5499999999999403E-2</v>
+        <v>1.499999999999968E-2</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>0.30999999999998806</v>
+        <v>0.29999999999999361</v>
       </c>
       <c r="I9">
         <f t="shared" ref="I9:I11" si="6">H9/C9</f>
-        <v>0.48895899053625874</v>
+        <v>0.47318611987380693</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3242,21 +3254,24 @@
       <c r="D10" s="13">
         <v>3.0019999999999998</v>
       </c>
+      <c r="E10" s="13">
+        <v>3.03</v>
+      </c>
       <c r="F10" s="13">
         <f t="shared" si="4"/>
-        <v>-7.5000000000000622E-3</v>
+        <v>3.0209999999999999</v>
       </c>
       <c r="G10">
         <f t="shared" si="5"/>
-        <v>-3.0095000000000001</v>
+        <v>1.9000000000000128E-2</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>-60.19</v>
+        <v>0.38000000000000256</v>
       </c>
       <c r="I10">
         <f t="shared" si="6"/>
-        <v>-90.9214501510574</v>
+        <v>0.5740181268882214</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3272,21 +3287,24 @@
       <c r="D11" s="13">
         <v>3.1480000000000001</v>
       </c>
+      <c r="E11" s="13">
+        <v>3.1709999999999998</v>
+      </c>
       <c r="F11" s="13">
         <f t="shared" si="4"/>
-        <v>-7.5000000000000622E-3</v>
+        <v>3.1619999999999999</v>
       </c>
       <c r="G11">
         <f t="shared" si="5"/>
-        <v>-3.1555</v>
+        <v>1.399999999999979E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>-63.11</v>
+        <v>0.27999999999999581</v>
       </c>
       <c r="I11">
         <f t="shared" si="6"/>
-        <v>-95.332326283987911</v>
+        <v>0.42296072507552235</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3296,6 +3314,12 @@
       <c r="B12" s="13">
         <v>1</v>
       </c>
+      <c r="C12" s="13">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="D12" s="13">
+        <v>2.7839999999999998</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
@@ -3303,6 +3327,12 @@
       </c>
       <c r="B13" s="13">
         <v>2</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="D13" s="13">
+        <v>2.8730000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">

--- a/Experimental Results/cell dry weight measurements.xlsx
+++ b/Experimental Results/cell dry weight measurements.xlsx
@@ -459,11 +459,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="133527424"/>
-        <c:axId val="133528960"/>
+        <c:axId val="136996736"/>
+        <c:axId val="136998272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="133527424"/>
+        <c:axId val="136996736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -473,12 +473,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133528960"/>
+        <c:crossAx val="136998272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="133528960"/>
+        <c:axId val="136998272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -489,7 +489,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133527424"/>
+        <c:crossAx val="136996736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -660,11 +660,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="134746112"/>
-        <c:axId val="134748032"/>
+        <c:axId val="142540800"/>
+        <c:axId val="142542720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="134746112"/>
+        <c:axId val="142540800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -692,12 +692,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134748032"/>
+        <c:crossAx val="142542720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="134748032"/>
+        <c:axId val="142542720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -726,7 +726,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134746112"/>
+        <c:crossAx val="142540800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -788,10 +788,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Filtering and Spin'!$C$8:$C$11</c:f>
+              <c:f>'Filtering and Spin'!$C$8:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.63400000000000001</c:v>
                 </c:pt>
@@ -803,27 +803,39 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.66200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84499999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Filtering and Spin'!$H$8:$H$11</c:f>
+              <c:f>'Filtering and Spin'!$H$8:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.32000000000000028</c:v>
+                  <c:v>0.30999999999999694</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29999999999999361</c:v>
+                  <c:v>0.28999999999999027</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38000000000000256</c:v>
+                  <c:v>0.36999999999999922</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27999999999999581</c:v>
+                  <c:v>0.28999999999999027</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52999999999999936</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38999999999998813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -838,11 +850,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141257728"/>
-        <c:axId val="141259520"/>
+        <c:axId val="142633984"/>
+        <c:axId val="142635776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141257728"/>
+        <c:axId val="142633984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -852,12 +864,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141259520"/>
+        <c:crossAx val="142635776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141259520"/>
+        <c:axId val="142635776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -868,7 +880,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141257728"/>
+        <c:crossAx val="142633984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2949,8 +2961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3009,19 +3021,19 @@
       </c>
       <c r="F2" s="12">
         <f>E2-$F$7</f>
-        <v>3.1100000000000003</v>
+        <v>3.1105</v>
       </c>
       <c r="G2" s="12">
         <f>F2-D2</f>
-        <v>1.4000000000000234E-2</v>
+        <v>1.4499999999999957E-2</v>
       </c>
       <c r="H2" s="12">
         <f>G2/0.05</f>
-        <v>0.28000000000000469</v>
+        <v>0.28999999999999915</v>
       </c>
       <c r="I2" s="12">
         <f>H2/C2</f>
-        <v>0.44444444444445186</v>
+        <v>0.46031746031745896</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3042,19 +3054,19 @@
       </c>
       <c r="F3" s="12">
         <f t="shared" ref="F3:F5" si="0">E3-$F$7</f>
-        <v>2.524</v>
+        <v>2.5244999999999997</v>
       </c>
       <c r="G3" s="12">
         <f t="shared" ref="G3:G5" si="1">F3-D3</f>
-        <v>1.2999999999999901E-2</v>
+        <v>1.3499999999999623E-2</v>
       </c>
       <c r="H3" s="12">
-        <f t="shared" ref="H3:H11" si="2">G3/0.05</f>
-        <v>0.25999999999999801</v>
+        <f t="shared" ref="H3:H13" si="2">G3/0.05</f>
+        <v>0.26999999999999247</v>
       </c>
       <c r="I3" s="12">
         <f t="shared" ref="I3:I5" si="3">H3/C3</f>
-        <v>0.41269841269840951</v>
+        <v>0.42857142857141661</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3071,23 +3083,23 @@
         <v>2.5659999999999998</v>
       </c>
       <c r="E4">
-        <v>2.5960000000000001</v>
+        <v>2.5939999999999999</v>
       </c>
       <c r="F4" s="13">
         <f t="shared" si="0"/>
-        <v>2.5869999999999997</v>
+        <v>2.5854999999999997</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>2.0999999999999908E-2</v>
+        <v>1.9499999999999851E-2</v>
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
-        <v>0.41999999999999815</v>
+        <v>0.38999999999999702</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>0.67092651757188204</v>
+        <v>0.62300319488817413</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3108,19 +3120,19 @@
       </c>
       <c r="F5" s="12">
         <f t="shared" si="0"/>
-        <v>2.6840000000000002</v>
+        <v>2.6844999999999999</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" si="1"/>
-        <v>1.1000000000000121E-2</v>
+        <v>1.1499999999999844E-2</v>
       </c>
       <c r="H5" s="12">
         <f t="shared" si="2"/>
-        <v>0.22000000000000242</v>
+        <v>0.22999999999999687</v>
       </c>
       <c r="I5" s="12">
         <f t="shared" si="3"/>
-        <v>0.35143769968051503</v>
+        <v>0.36741214057507487</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3137,7 +3149,7 @@
         <v>2.88</v>
       </c>
       <c r="E6" s="13">
-        <v>2.8889999999999998</v>
+        <v>2.8879999999999999</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>66</v>
@@ -3166,11 +3178,11 @@
       </c>
       <c r="F7" s="13">
         <f>AVERAGE((E6-D6),(E7-D7))</f>
-        <v>9.000000000000119E-3</v>
+        <v>8.5000000000001741E-3</v>
       </c>
       <c r="G7" s="13">
         <f>STDEV((E6-D6),(E7-D7))</f>
-        <v>3.1401849173675503E-16</v>
+        <v>7.0710678118678365E-4</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="15"/>
@@ -3189,23 +3201,23 @@
         <v>2.8330000000000002</v>
       </c>
       <c r="E8" s="13">
-        <v>2.8580000000000001</v>
+        <v>2.8570000000000002</v>
       </c>
       <c r="F8" s="13">
-        <f t="shared" ref="F8:F11" si="4">E8-$F$7</f>
-        <v>2.8490000000000002</v>
+        <f t="shared" ref="F8:F13" si="4">E8-$F$7</f>
+        <v>2.8485</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G11" si="5">F8-D8</f>
-        <v>1.6000000000000014E-2</v>
+        <f t="shared" ref="G8:G13" si="5">F8-D8</f>
+        <v>1.5499999999999847E-2</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>0.32000000000000028</v>
+        <v>0.30999999999999694</v>
       </c>
       <c r="I8">
         <f>H8/C8</f>
-        <v>0.50473186119873859</v>
+        <v>0.48895899053627279</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3222,23 +3234,23 @@
         <v>2.8620000000000001</v>
       </c>
       <c r="E9" s="13">
-        <v>2.8860000000000001</v>
+        <v>2.8849999999999998</v>
       </c>
       <c r="F9" s="13">
         <f t="shared" si="4"/>
-        <v>2.8769999999999998</v>
+        <v>2.8764999999999996</v>
       </c>
       <c r="G9">
         <f t="shared" si="5"/>
-        <v>1.499999999999968E-2</v>
+        <v>1.4499999999999513E-2</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>0.29999999999999361</v>
+        <v>0.28999999999999027</v>
       </c>
       <c r="I9">
-        <f t="shared" ref="I9:I11" si="6">H9/C9</f>
-        <v>0.47318611987380693</v>
+        <f t="shared" ref="I9:I13" si="6">H9/C9</f>
+        <v>0.45741324921134113</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3255,23 +3267,23 @@
         <v>3.0019999999999998</v>
       </c>
       <c r="E10" s="13">
-        <v>3.03</v>
+        <v>3.0289999999999999</v>
       </c>
       <c r="F10" s="13">
         <f t="shared" si="4"/>
-        <v>3.0209999999999999</v>
+        <v>3.0204999999999997</v>
       </c>
       <c r="G10">
         <f t="shared" si="5"/>
-        <v>1.9000000000000128E-2</v>
+        <v>1.8499999999999961E-2</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>0.38000000000000256</v>
+        <v>0.36999999999999922</v>
       </c>
       <c r="I10">
         <f t="shared" si="6"/>
-        <v>0.5740181268882214</v>
+        <v>0.55891238670694743</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -3292,19 +3304,19 @@
       </c>
       <c r="F11" s="13">
         <f t="shared" si="4"/>
-        <v>3.1619999999999999</v>
+        <v>3.1624999999999996</v>
       </c>
       <c r="G11">
         <f t="shared" si="5"/>
-        <v>1.399999999999979E-2</v>
+        <v>1.4499999999999513E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>0.27999999999999581</v>
+        <v>0.28999999999999027</v>
       </c>
       <c r="I11">
         <f t="shared" si="6"/>
-        <v>0.42296072507552235</v>
+        <v>0.43806646525678283</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3320,6 +3332,25 @@
       <c r="D12" s="13">
         <v>2.7839999999999998</v>
       </c>
+      <c r="E12" s="13">
+        <v>2.819</v>
+      </c>
+      <c r="F12" s="13">
+        <f t="shared" si="4"/>
+        <v>2.8104999999999998</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>2.6499999999999968E-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0.52999999999999936</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="6"/>
+        <v>0.62721893491124192</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
@@ -3334,10 +3365,29 @@
       <c r="D13" s="13">
         <v>2.8730000000000002</v>
       </c>
+      <c r="E13" s="13">
+        <v>2.9009999999999998</v>
+      </c>
+      <c r="F13" s="13">
+        <f t="shared" si="4"/>
+        <v>2.8924999999999996</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>1.9499999999999407E-2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0.38999999999998813</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="6"/>
+        <v>0.46153846153844752</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
-        <v>42347</v>
+        <v>42348</v>
       </c>
       <c r="B14" s="13">
         <v>1</v>
@@ -3345,7 +3395,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
-        <v>42347</v>
+        <v>42348</v>
       </c>
       <c r="B15" s="13">
         <v>2</v>

--- a/Experimental Results/cell dry weight measurements.xlsx
+++ b/Experimental Results/cell dry weight measurements.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" activeTab="4"/>
+    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Trial 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Trial 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Salts Calculations" sheetId="3" r:id="rId3"/>
-    <sheet name="Filtering Method" sheetId="4" r:id="rId4"/>
-    <sheet name="Filtering and Spin" sheetId="5" r:id="rId5"/>
+    <sheet name="Filtering and Spin" sheetId="5" r:id="rId1"/>
+    <sheet name="OD v Cell Density Chart" sheetId="6" r:id="rId2"/>
+    <sheet name="Trial 1" sheetId="1" r:id="rId3"/>
+    <sheet name="Trial 2" sheetId="2" r:id="rId4"/>
+    <sheet name="Salts Calculations" sheetId="3" r:id="rId5"/>
+    <sheet name="Filtering Method" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="71">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -228,6 +229,9 @@
   </si>
   <si>
     <t>Local Density (g/L)</t>
+  </si>
+  <si>
+    <t>&lt;- Broken Filter</t>
   </si>
 </sst>
 </file>
@@ -366,6 +370,197 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.43940781453105099"/>
+                  <c:y val="0.13725055809956971"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Filtering and Spin'!$C$9:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Filtering and Spin'!$H$9:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.26999999999999247</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26999999999999247</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33000000000000362</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22999999999999687</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51000000000000156</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38999999999998813</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36999999999999922</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.54999999999999716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="85232640"/>
+        <c:axId val="85246720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="85232640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85246720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="85246720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85232640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -459,11 +654,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="136996736"/>
-        <c:axId val="136998272"/>
+        <c:axId val="134440448"/>
+        <c:axId val="134441984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="136996736"/>
+        <c:axId val="134440448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -473,12 +668,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136998272"/>
+        <c:crossAx val="134441984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="136998272"/>
+        <c:axId val="134441984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -489,7 +684,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136996736"/>
+        <c:crossAx val="134440448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -506,7 +701,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -660,11 +855,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="142540800"/>
-        <c:axId val="142542720"/>
+        <c:axId val="134458752"/>
+        <c:axId val="134678016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142540800"/>
+        <c:axId val="134458752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -692,12 +887,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142542720"/>
+        <c:crossAx val="134678016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142542720"/>
+        <c:axId val="134678016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -726,7 +921,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142540800"/>
+        <c:crossAx val="134458752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -743,161 +938,45 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:intercept val="0"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.43199805248818512"/>
-                  <c:y val="7.6497730043290108E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Filtering and Spin'!$C$8:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.63400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.63400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.66200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.66200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.84499999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.84499999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Filtering and Spin'!$H$8:$H$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.30999999999999694</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.28999999999999027</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.36999999999999922</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.28999999999999027</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.52999999999999936</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.38999999999998813</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="142633984"/>
-        <c:axId val="142635776"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="142633984"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142635776"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="142635776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142633984"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8669311" cy="6283377"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -954,41 +1033,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>286871</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>94130</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>338418</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>147919</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1284,6 +1328,519 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>42341</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="D2" s="12">
+        <v>3.0960000000000001</v>
+      </c>
+      <c r="E2" s="12">
+        <v>3.1190000000000002</v>
+      </c>
+      <c r="F2" s="12">
+        <f>E2-$F$7</f>
+        <v>3.1105</v>
+      </c>
+      <c r="G2" s="12">
+        <f>F2-D2</f>
+        <v>1.4499999999999957E-2</v>
+      </c>
+      <c r="H2" s="12">
+        <f>G2/0.05</f>
+        <v>0.28999999999999915</v>
+      </c>
+      <c r="I2" s="12">
+        <f>H2/C2</f>
+        <v>0.46031746031745896</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>42341</v>
+      </c>
+      <c r="B3" s="12">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="D3" s="12">
+        <v>2.5110000000000001</v>
+      </c>
+      <c r="E3" s="12">
+        <v>2.5329999999999999</v>
+      </c>
+      <c r="F3" s="12">
+        <f t="shared" ref="F3:F5" si="0">E3-$F$7</f>
+        <v>2.5244999999999997</v>
+      </c>
+      <c r="G3" s="12">
+        <f t="shared" ref="G3:G5" si="1">F3-D3</f>
+        <v>1.3499999999999623E-2</v>
+      </c>
+      <c r="H3" s="12">
+        <f t="shared" ref="H3:H16" si="2">G3/0.05</f>
+        <v>0.26999999999999247</v>
+      </c>
+      <c r="I3" s="12">
+        <f t="shared" ref="I3:I5" si="3">H3/C3</f>
+        <v>0.42857142857141661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>42341</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0.626</v>
+      </c>
+      <c r="D4">
+        <v>2.5659999999999998</v>
+      </c>
+      <c r="E4">
+        <v>2.593</v>
+      </c>
+      <c r="F4" s="13">
+        <f t="shared" si="0"/>
+        <v>2.5844999999999998</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1.8499999999999961E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0.36999999999999922</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>0.59105431309904033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>42341</v>
+      </c>
+      <c r="B5" s="12">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.626</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2.673</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2.6930000000000001</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="0"/>
+        <v>2.6844999999999999</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="1"/>
+        <v>1.1499999999999844E-2</v>
+      </c>
+      <c r="H5" s="12">
+        <f t="shared" si="2"/>
+        <v>0.22999999999999687</v>
+      </c>
+      <c r="I5" s="12">
+        <f t="shared" si="3"/>
+        <v>0.36741214057507487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>42342</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2.88</v>
+      </c>
+      <c r="E6" s="13">
+        <v>2.8879999999999999</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>42342</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="13">
+        <v>2.6019999999999999</v>
+      </c>
+      <c r="E7" s="13">
+        <v>2.6110000000000002</v>
+      </c>
+      <c r="F7" s="13">
+        <f>AVERAGE((E6-D6),(E7-D7))</f>
+        <v>8.5000000000001741E-3</v>
+      </c>
+      <c r="G7" s="13">
+        <f>STDEV((E6-D6),(E7-D7))</f>
+        <v>7.0710678118678365E-4</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>42343</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="E9" s="13">
+        <v>2.855</v>
+      </c>
+      <c r="F9" s="13">
+        <f t="shared" ref="F9:F16" si="4">E9-$F$7</f>
+        <v>2.8464999999999998</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:G16" si="5">F9-D9</f>
+        <v>1.3499999999999623E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.26999999999999247</v>
+      </c>
+      <c r="I9">
+        <f>H9/C9</f>
+        <v>0.42586750788642347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>42343</v>
+      </c>
+      <c r="B10" s="13">
+        <v>2</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="D10" s="13">
+        <v>2.8620000000000001</v>
+      </c>
+      <c r="E10" s="13">
+        <v>2.8839999999999999</v>
+      </c>
+      <c r="F10" s="13">
+        <f t="shared" si="4"/>
+        <v>2.8754999999999997</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="5"/>
+        <v>1.3499999999999623E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.26999999999999247</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ref="I10:I16" si="6">H10/C10</f>
+        <v>0.42586750788642347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <v>42345</v>
+      </c>
+      <c r="B11" s="13">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="D11" s="13">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="E11" s="13">
+        <v>3.0270000000000001</v>
+      </c>
+      <c r="F11" s="13">
+        <f t="shared" si="4"/>
+        <v>3.0185</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>1.6500000000000181E-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0.33000000000000362</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="6"/>
+        <v>0.49848942598187856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>42345</v>
+      </c>
+      <c r="B12" s="13">
+        <v>2</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="D12" s="13">
+        <v>3.1480000000000001</v>
+      </c>
+      <c r="E12" s="13">
+        <v>3.1680000000000001</v>
+      </c>
+      <c r="F12" s="13">
+        <f t="shared" si="4"/>
+        <v>3.1595</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>1.1499999999999844E-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0.22999999999999687</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="6"/>
+        <v>0.34743202416917957</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>42346</v>
+      </c>
+      <c r="B13" s="13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="D13" s="13">
+        <v>2.7839999999999998</v>
+      </c>
+      <c r="E13" s="13">
+        <v>2.8180000000000001</v>
+      </c>
+      <c r="F13" s="13">
+        <f t="shared" si="4"/>
+        <v>2.8094999999999999</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>2.5500000000000078E-2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0.51000000000000156</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="6"/>
+        <v>0.60355029585799003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>42346</v>
+      </c>
+      <c r="B14" s="13">
+        <v>2</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="D14" s="13">
+        <v>2.8730000000000002</v>
+      </c>
+      <c r="E14" s="13">
+        <v>2.9009999999999998</v>
+      </c>
+      <c r="F14" s="13">
+        <f t="shared" si="4"/>
+        <v>2.8924999999999996</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>1.9499999999999407E-2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0.38999999999998813</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="6"/>
+        <v>0.46153846153844752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B15" s="13">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="D15" s="13">
+        <v>2.88</v>
+      </c>
+      <c r="E15" s="13">
+        <v>2.907</v>
+      </c>
+      <c r="F15" s="13">
+        <f t="shared" si="4"/>
+        <v>2.8984999999999999</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>1.8499999999999961E-2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0.36999999999999922</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="6"/>
+        <v>0.43529411764705789</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>42350</v>
+      </c>
+      <c r="B16" s="13">
+        <v>2</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="D16" s="13">
+        <v>2.782</v>
+      </c>
+      <c r="E16" s="13">
+        <v>2.8180000000000001</v>
+      </c>
+      <c r="F16" s="13">
+        <f t="shared" si="4"/>
+        <v>2.8094999999999999</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>2.7499999999999858E-2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0.54999999999999716</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="6"/>
+        <v>0.64705882352940847</v>
+      </c>
+      <c r="J16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <f>LN(2)/12</f>
+        <v>5.7762265046662105E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -1713,7 +2270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
@@ -2128,7 +2685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -2252,7 +2809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
@@ -2955,454 +3512,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
-        <v>42341</v>
-      </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.63</v>
-      </c>
-      <c r="D2" s="12">
-        <v>3.0960000000000001</v>
-      </c>
-      <c r="E2" s="12">
-        <v>3.1190000000000002</v>
-      </c>
-      <c r="F2" s="12">
-        <f>E2-$F$7</f>
-        <v>3.1105</v>
-      </c>
-      <c r="G2" s="12">
-        <f>F2-D2</f>
-        <v>1.4499999999999957E-2</v>
-      </c>
-      <c r="H2" s="12">
-        <f>G2/0.05</f>
-        <v>0.28999999999999915</v>
-      </c>
-      <c r="I2" s="12">
-        <f>H2/C2</f>
-        <v>0.46031746031745896</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <v>42341</v>
-      </c>
-      <c r="B3" s="12">
-        <v>2</v>
-      </c>
-      <c r="C3" s="12">
-        <v>0.63</v>
-      </c>
-      <c r="D3" s="12">
-        <v>2.5110000000000001</v>
-      </c>
-      <c r="E3" s="12">
-        <v>2.5329999999999999</v>
-      </c>
-      <c r="F3" s="12">
-        <f t="shared" ref="F3:F5" si="0">E3-$F$7</f>
-        <v>2.5244999999999997</v>
-      </c>
-      <c r="G3" s="12">
-        <f t="shared" ref="G3:G5" si="1">F3-D3</f>
-        <v>1.3499999999999623E-2</v>
-      </c>
-      <c r="H3" s="12">
-        <f t="shared" ref="H3:H13" si="2">G3/0.05</f>
-        <v>0.26999999999999247</v>
-      </c>
-      <c r="I3" s="12">
-        <f t="shared" ref="I3:I5" si="3">H3/C3</f>
-        <v>0.42857142857141661</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>42341</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>0.626</v>
-      </c>
-      <c r="D4">
-        <v>2.5659999999999998</v>
-      </c>
-      <c r="E4">
-        <v>2.5939999999999999</v>
-      </c>
-      <c r="F4" s="13">
-        <f t="shared" si="0"/>
-        <v>2.5854999999999997</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>1.9499999999999851E-2</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="2"/>
-        <v>0.38999999999999702</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="3"/>
-        <v>0.62300319488817413</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
-        <v>42341</v>
-      </c>
-      <c r="B5" s="12">
-        <v>4</v>
-      </c>
-      <c r="C5" s="12">
-        <v>0.626</v>
-      </c>
-      <c r="D5" s="12">
-        <v>2.673</v>
-      </c>
-      <c r="E5" s="12">
-        <v>2.6930000000000001</v>
-      </c>
-      <c r="F5" s="12">
-        <f t="shared" si="0"/>
-        <v>2.6844999999999999</v>
-      </c>
-      <c r="G5" s="12">
-        <f t="shared" si="1"/>
-        <v>1.1499999999999844E-2</v>
-      </c>
-      <c r="H5" s="12">
-        <f t="shared" si="2"/>
-        <v>0.22999999999999687</v>
-      </c>
-      <c r="I5" s="12">
-        <f t="shared" si="3"/>
-        <v>0.36741214057507487</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
-        <v>42342</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="13">
-        <v>2.88</v>
-      </c>
-      <c r="E6" s="13">
-        <v>2.8879999999999999</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
-        <v>42342</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="13">
-        <v>2.6019999999999999</v>
-      </c>
-      <c r="E7" s="13">
-        <v>2.6110000000000002</v>
-      </c>
-      <c r="F7" s="13">
-        <f>AVERAGE((E6-D6),(E7-D7))</f>
-        <v>8.5000000000001741E-3</v>
-      </c>
-      <c r="G7" s="13">
-        <f>STDEV((E6-D6),(E7-D7))</f>
-        <v>7.0710678118678365E-4</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
-        <v>42343</v>
-      </c>
-      <c r="B8" s="13">
-        <v>1</v>
-      </c>
-      <c r="C8" s="13">
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="D8" s="13">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="E8" s="13">
-        <v>2.8570000000000002</v>
-      </c>
-      <c r="F8" s="13">
-        <f t="shared" ref="F8:F13" si="4">E8-$F$7</f>
-        <v>2.8485</v>
-      </c>
-      <c r="G8">
-        <f t="shared" ref="G8:G13" si="5">F8-D8</f>
-        <v>1.5499999999999847E-2</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
-        <v>0.30999999999999694</v>
-      </c>
-      <c r="I8">
-        <f>H8/C8</f>
-        <v>0.48895899053627279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
-        <v>42343</v>
-      </c>
-      <c r="B9" s="13">
-        <v>2</v>
-      </c>
-      <c r="C9" s="13">
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="D9" s="13">
-        <v>2.8620000000000001</v>
-      </c>
-      <c r="E9" s="13">
-        <v>2.8849999999999998</v>
-      </c>
-      <c r="F9" s="13">
-        <f t="shared" si="4"/>
-        <v>2.8764999999999996</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="5"/>
-        <v>1.4499999999999513E-2</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
-        <v>0.28999999999999027</v>
-      </c>
-      <c r="I9">
-        <f t="shared" ref="I9:I13" si="6">H9/C9</f>
-        <v>0.45741324921134113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
-        <v>42345</v>
-      </c>
-      <c r="B10" s="13">
-        <v>1</v>
-      </c>
-      <c r="C10" s="13">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="D10" s="13">
-        <v>3.0019999999999998</v>
-      </c>
-      <c r="E10" s="13">
-        <v>3.0289999999999999</v>
-      </c>
-      <c r="F10" s="13">
-        <f t="shared" si="4"/>
-        <v>3.0204999999999997</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="5"/>
-        <v>1.8499999999999961E-2</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="2"/>
-        <v>0.36999999999999922</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="6"/>
-        <v>0.55891238670694743</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
-        <v>42345</v>
-      </c>
-      <c r="B11" s="13">
-        <v>2</v>
-      </c>
-      <c r="C11" s="13">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="D11" s="13">
-        <v>3.1480000000000001</v>
-      </c>
-      <c r="E11" s="13">
-        <v>3.1709999999999998</v>
-      </c>
-      <c r="F11" s="13">
-        <f t="shared" si="4"/>
-        <v>3.1624999999999996</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="5"/>
-        <v>1.4499999999999513E-2</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
-        <v>0.28999999999999027</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="6"/>
-        <v>0.43806646525678283</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>42346</v>
-      </c>
-      <c r="B12" s="13">
-        <v>1</v>
-      </c>
-      <c r="C12" s="13">
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="D12" s="13">
-        <v>2.7839999999999998</v>
-      </c>
-      <c r="E12" s="13">
-        <v>2.819</v>
-      </c>
-      <c r="F12" s="13">
-        <f t="shared" si="4"/>
-        <v>2.8104999999999998</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="5"/>
-        <v>2.6499999999999968E-2</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
-        <v>0.52999999999999936</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="6"/>
-        <v>0.62721893491124192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
-        <v>42346</v>
-      </c>
-      <c r="B13" s="13">
-        <v>2</v>
-      </c>
-      <c r="C13" s="13">
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="D13" s="13">
-        <v>2.8730000000000002</v>
-      </c>
-      <c r="E13" s="13">
-        <v>2.9009999999999998</v>
-      </c>
-      <c r="F13" s="13">
-        <f t="shared" si="4"/>
-        <v>2.8924999999999996</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="5"/>
-        <v>1.9499999999999407E-2</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
-        <v>0.38999999999998813</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="6"/>
-        <v>0.46153846153844752</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
-        <v>42348</v>
-      </c>
-      <c r="B14" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
-        <v>42348</v>
-      </c>
-      <c r="B15" s="13">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Experimental Results/cell dry weight measurements.xlsx
+++ b/Experimental Results/cell dry weight measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Filtering and Spin" sheetId="5" r:id="rId1"/>
@@ -411,10 +411,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Filtering and Spin'!$C$9:$C$16</c:f>
+              <c:f>'Filtering and Spin'!$C$9:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.63400000000000001</c:v>
                 </c:pt>
@@ -434,9 +434,6 @@
                   <c:v>0.84499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.85</c:v>
                 </c:pt>
               </c:numCache>
@@ -444,10 +441,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Filtering and Spin'!$H$9:$H$16</c:f>
+              <c:f>'Filtering and Spin'!$H$9:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.26999999999999247</c:v>
                 </c:pt>
@@ -468,9 +465,6 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.36999999999999922</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.54999999999999716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -485,11 +479,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="85232640"/>
-        <c:axId val="85246720"/>
+        <c:axId val="82839808"/>
+        <c:axId val="82862080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85232640"/>
+        <c:axId val="82839808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -509,12 +503,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85246720"/>
+        <c:crossAx val="82862080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85246720"/>
+        <c:axId val="82862080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -535,7 +529,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85232640"/>
+        <c:crossAx val="82839808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -577,6 +571,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -654,11 +649,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="134440448"/>
-        <c:axId val="134441984"/>
+        <c:axId val="82979072"/>
+        <c:axId val="83005440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="134440448"/>
+        <c:axId val="82979072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -668,12 +663,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134441984"/>
+        <c:crossAx val="83005440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="134441984"/>
+        <c:axId val="83005440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -684,7 +679,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134440448"/>
+        <c:crossAx val="82979072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -731,6 +726,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -855,11 +851,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="134458752"/>
-        <c:axId val="134678016"/>
+        <c:axId val="86180224"/>
+        <c:axId val="86182144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="134458752"/>
+        <c:axId val="86180224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -881,18 +877,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134678016"/>
+        <c:crossAx val="86182144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="134678016"/>
+        <c:axId val="86182144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -915,13 +912,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134458752"/>
+        <c:crossAx val="86180224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -942,7 +940,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="126" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -953,7 +951,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669311" cy="6283377"/>
+    <xdr:ext cx="8670774" cy="6297083"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1331,19 +1329,19 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -1372,7 +1370,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>42341</v>
       </c>
@@ -1405,7 +1403,7 @@
         <v>0.46031746031745896</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>42341</v>
       </c>
@@ -1438,7 +1436,7 @@
         <v>0.42857142857141661</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>42341</v>
       </c>
@@ -1471,7 +1469,7 @@
         <v>0.59105431309904033</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>42341</v>
       </c>
@@ -1504,7 +1502,7 @@
         <v>0.36741214057507487</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>42342</v>
       </c>
@@ -1529,7 +1527,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>42342</v>
       </c>
@@ -1556,12 +1554,12 @@
       <c r="H7" s="16"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="H8" s="16"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>42343</v>
       </c>
@@ -1594,7 +1592,7 @@
         <v>0.42586750788642347</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>42343</v>
       </c>
@@ -1627,7 +1625,7 @@
         <v>0.42586750788642347</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>42345</v>
       </c>
@@ -1660,7 +1658,7 @@
         <v>0.49848942598187856</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>42345</v>
       </c>
@@ -1693,7 +1691,7 @@
         <v>0.34743202416917957</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>42346</v>
       </c>
@@ -1726,7 +1724,7 @@
         <v>0.60355029585799003</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>42346</v>
       </c>
@@ -1759,7 +1757,7 @@
         <v>0.46153846153844752</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>42349</v>
       </c>
@@ -1792,35 +1790,35 @@
         <v>0.43529411764705789</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
-        <v>42350</v>
-      </c>
-      <c r="B16" s="13">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>42349</v>
+      </c>
+      <c r="B16" s="12">
         <v>2</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>0.85</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <v>2.782</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>2.8180000000000001</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="12">
         <f t="shared" si="4"/>
         <v>2.8094999999999999</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="12">
         <f t="shared" si="5"/>
         <v>2.7499999999999858E-2</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="12">
         <f t="shared" si="2"/>
         <v>0.54999999999999716</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="12">
         <f t="shared" si="6"/>
         <v>0.64705882352940847</v>
       </c>
@@ -1828,7 +1826,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G18">
         <f>LN(2)/12</f>
         <v>5.7762265046662105E-2</v>
@@ -1844,24 +1842,24 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1875,7 +1873,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1916,7 +1914,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1961,7 +1959,7 @@
         <v>0.35999999999997812</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2010,7 +2008,7 @@
         <v>0.50699999999999967</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2059,7 +2057,7 @@
         <v>0.60299999999999976</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2108,7 +2106,7 @@
         <v>0.74800000000000111</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2156,7 +2154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2206,7 +2204,7 @@
         <v>0.48603351955306129</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2248,19 +2246,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>C8-K8</f>
         <v>0.59575000000000244</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="O16">
         <f>AVERAGE(O4:O7)</f>
         <v>0.13080932749067697</v>
       </c>
     </row>
-    <row r="17" spans="15:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O17" t="s">
         <v>12</v>
       </c>
@@ -2278,18 +2276,18 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2303,7 +2301,7 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2344,7 +2342,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2390,7 +2388,7 @@
         <v>0.76000000000000512</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2440,7 +2438,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2490,7 +2488,7 @@
         <v>2.0679999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2540,7 +2538,7 @@
         <v>2.8359999999999985</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2588,7 +2586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2638,7 +2636,7 @@
         <v>1.5081967213114742</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2693,11 +2691,11 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -2817,12 +2815,12 @@
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="10">
         <v>42320</v>
       </c>
@@ -2845,7 +2843,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -2885,7 +2883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -2932,7 +2930,7 @@
         <v>0.60000000000000053</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2981,7 +2979,7 @@
         <v>0.54999999999998384</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3019,7 +3017,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3057,7 +3055,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>40</v>
       </c>
@@ -3080,7 +3078,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>41</v>
       </c>
@@ -3103,7 +3101,7 @@
         <v>0.34999999999998366</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="O9">
         <v>0.69199999999999995</v>
       </c>
@@ -3111,7 +3109,7 @@
         <v>0.45000000000001705</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>42326</v>
       </c>
@@ -3128,7 +3126,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -3160,7 +3158,7 @@
         <v>0.30000000000001137</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3189,7 +3187,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3218,7 +3216,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -3247,7 +3245,7 @@
         <v>0.34999999999998366</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>40</v>
       </c>
@@ -3264,7 +3262,7 @@
         <v>0.43333333333333002</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>41</v>
       </c>
@@ -3281,7 +3279,7 @@
         <v>7.6376261582610933E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>42327</v>
       </c>
@@ -3292,7 +3290,7 @@
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>36</v>
       </c>
@@ -3312,7 +3310,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3338,7 +3336,7 @@
         <v>0.45000000000001705</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3364,7 +3362,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -3408,7 +3406,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>46</v>
       </c>
@@ -3445,7 +3443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>42</v>
       </c>
@@ -3482,7 +3480,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="W25" t="s">
         <v>55</v>
       </c>

--- a/Experimental Results/cell dry weight measurements.xlsx
+++ b/Experimental Results/cell dry weight measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835" activeTab="1"/>
+    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Filtering and Spin" sheetId="5" r:id="rId1"/>
@@ -392,8 +392,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.43940781453105099"/>
-                  <c:y val="0.13725055809956971"/>
+                  <c:x val="-0.40739131402714701"/>
+                  <c:y val="0.22052249928660972"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -455,16 +455,16 @@
                   <c:v>0.33000000000000362</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22999999999999687</c:v>
+                  <c:v>0.24999999999999467</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.51000000000000156</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.38999999999998813</c:v>
+                  <c:v>0.36999999999999034</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36999999999999922</c:v>
+                  <c:v>0.38999999999999702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -479,11 +479,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="82839808"/>
-        <c:axId val="82862080"/>
+        <c:axId val="125036416"/>
+        <c:axId val="125037952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82839808"/>
+        <c:axId val="125036416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -503,12 +503,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82862080"/>
+        <c:crossAx val="125037952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82862080"/>
+        <c:axId val="125037952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -529,7 +529,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82839808"/>
+        <c:crossAx val="125036416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -571,7 +571,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -649,11 +648,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="82979072"/>
-        <c:axId val="83005440"/>
+        <c:axId val="136945664"/>
+        <c:axId val="136947200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82979072"/>
+        <c:axId val="136945664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,12 +662,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83005440"/>
+        <c:crossAx val="136947200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83005440"/>
+        <c:axId val="136947200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -679,7 +678,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82979072"/>
+        <c:crossAx val="136945664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -726,7 +725,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -851,11 +849,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="86180224"/>
-        <c:axId val="86182144"/>
+        <c:axId val="137262976"/>
+        <c:axId val="137265152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86180224"/>
+        <c:axId val="137262976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -877,19 +875,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86182144"/>
+        <c:crossAx val="137265152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86182144"/>
+        <c:axId val="137265152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -912,14 +909,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86180224"/>
+        <c:crossAx val="137262976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -940,7 +936,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -951,7 +947,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8670774" cy="6297083"/>
+    <xdr:ext cx="8669311" cy="6283377"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1329,19 +1325,19 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -1370,7 +1366,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>42341</v>
       </c>
@@ -1403,7 +1399,7 @@
         <v>0.46031746031745896</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>42341</v>
       </c>
@@ -1436,7 +1432,7 @@
         <v>0.42857142857141661</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>42341</v>
       </c>
@@ -1469,7 +1465,7 @@
         <v>0.59105431309904033</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>42341</v>
       </c>
@@ -1502,7 +1498,7 @@
         <v>0.36741214057507487</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>42342</v>
       </c>
@@ -1527,7 +1523,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>42342</v>
       </c>
@@ -1554,12 +1550,12 @@
       <c r="H7" s="16"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="H8" s="16"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>42343</v>
       </c>
@@ -1592,7 +1588,7 @@
         <v>0.42586750788642347</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>42343</v>
       </c>
@@ -1625,7 +1621,7 @@
         <v>0.42586750788642347</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>42345</v>
       </c>
@@ -1658,7 +1654,7 @@
         <v>0.49848942598187856</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>42345</v>
       </c>
@@ -1672,26 +1668,26 @@
         <v>3.1480000000000001</v>
       </c>
       <c r="E12" s="13">
-        <v>3.1680000000000001</v>
+        <v>3.169</v>
       </c>
       <c r="F12" s="13">
         <f t="shared" si="4"/>
-        <v>3.1595</v>
+        <v>3.1604999999999999</v>
       </c>
       <c r="G12">
         <f t="shared" si="5"/>
-        <v>1.1499999999999844E-2</v>
+        <v>1.2499999999999734E-2</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>0.22999999999999687</v>
+        <v>0.24999999999999467</v>
       </c>
       <c r="I12">
         <f t="shared" si="6"/>
-        <v>0.34743202416917957</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+        <v>0.37764350453171397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>42346</v>
       </c>
@@ -1724,7 +1720,7 @@
         <v>0.60355029585799003</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>42346</v>
       </c>
@@ -1738,26 +1734,26 @@
         <v>2.8730000000000002</v>
       </c>
       <c r="E14" s="13">
-        <v>2.9009999999999998</v>
+        <v>2.9</v>
       </c>
       <c r="F14" s="13">
         <f t="shared" si="4"/>
-        <v>2.8924999999999996</v>
+        <v>2.8914999999999997</v>
       </c>
       <c r="G14">
         <f t="shared" si="5"/>
-        <v>1.9499999999999407E-2</v>
+        <v>1.8499999999999517E-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>0.38999999999998813</v>
+        <v>0.36999999999999034</v>
       </c>
       <c r="I14">
         <f t="shared" si="6"/>
-        <v>0.46153846153844752</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+        <v>0.43786982248519568</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>42349</v>
       </c>
@@ -1771,26 +1767,26 @@
         <v>2.88</v>
       </c>
       <c r="E15" s="13">
-        <v>2.907</v>
+        <v>2.9079999999999999</v>
       </c>
       <c r="F15" s="13">
         <f t="shared" si="4"/>
-        <v>2.8984999999999999</v>
+        <v>2.8994999999999997</v>
       </c>
       <c r="G15">
         <f t="shared" si="5"/>
-        <v>1.8499999999999961E-2</v>
+        <v>1.9499999999999851E-2</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>0.36999999999999922</v>
+        <v>0.38999999999999702</v>
       </c>
       <c r="I15">
         <f t="shared" si="6"/>
-        <v>0.43529411764705789</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.45882352941176119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>42349</v>
       </c>
@@ -1826,10 +1822,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="7:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="G18">
-        <f>LN(2)/12</f>
-        <v>5.7762265046662105E-2</v>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>42353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>42353</v>
       </c>
     </row>
   </sheetData>
@@ -1845,21 +1845,21 @@
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>0.35999999999997812</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>0.50699999999999967</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>0.60299999999999976</v>
       </c>
     </row>
-    <row r="7" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>0.74800000000000111</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>0.48603351955306129</v>
       </c>
     </row>
-    <row r="10" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2246,19 +2246,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>C8-K8</f>
         <v>0.59575000000000244</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O16">
         <f>AVERAGE(O4:O7)</f>
         <v>0.13080932749067697</v>
       </c>
     </row>
-    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="15:15" ht="15" x14ac:dyDescent="0.25">
       <c r="O17" t="s">
         <v>12</v>
       </c>
@@ -2276,18 +2276,18 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>0.76000000000000512</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>2.0679999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>2.8359999999999985</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>1.5081967213114742</v>
       </c>
     </row>
-    <row r="10" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2691,11 +2691,11 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -2815,12 +2815,12 @@
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="10">
         <v>42320</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>0.60000000000000053</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>0.54999999999998384</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>40</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>41</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>0.34999999999998366</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O9">
         <v>0.69199999999999995</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>0.45000000000001705</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>42326</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>0.30000000000001137</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>0.34999999999998366</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>40</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>0.43333333333333002</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>41</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>7.6376261582610933E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>42327</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>36</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>0.45000000000001705</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>46</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>42</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="W25" t="s">
         <v>55</v>
       </c>

--- a/Experimental Results/cell dry weight measurements.xlsx
+++ b/Experimental Results/cell dry weight measurements.xlsx
@@ -411,10 +411,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Filtering and Spin'!$C$9:$C$15</c:f>
+              <c:f>'Filtering and Spin'!$C$10:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.63400000000000001</c:v>
                 </c:pt>
@@ -435,16 +435,22 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78600000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Filtering and Spin'!$H$9:$H$15</c:f>
+              <c:f>'Filtering and Spin'!$H$10:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.26999999999999247</c:v>
                 </c:pt>
@@ -465,6 +471,12 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.38999999999999702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43000000000000149</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34999999999999254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -479,11 +491,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="125036416"/>
-        <c:axId val="125037952"/>
+        <c:axId val="135849856"/>
+        <c:axId val="135851392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125036416"/>
+        <c:axId val="135849856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -503,12 +515,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125037952"/>
+        <c:crossAx val="135851392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125037952"/>
+        <c:axId val="135851392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -529,7 +541,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125036416"/>
+        <c:crossAx val="135849856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -648,11 +660,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="136945664"/>
-        <c:axId val="136947200"/>
+        <c:axId val="136749056"/>
+        <c:axId val="136750592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="136945664"/>
+        <c:axId val="136749056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,12 +674,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136947200"/>
+        <c:crossAx val="136750592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="136947200"/>
+        <c:axId val="136750592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -678,7 +690,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136945664"/>
+        <c:crossAx val="136749056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -849,11 +861,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137262976"/>
-        <c:axId val="137265152"/>
+        <c:axId val="137914240"/>
+        <c:axId val="137916416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137262976"/>
+        <c:axId val="137914240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -881,12 +893,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137265152"/>
+        <c:crossAx val="137916416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137265152"/>
+        <c:axId val="137916416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -915,7 +927,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137262976"/>
+        <c:crossAx val="137914240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -947,7 +959,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669311" cy="6283377"/>
+    <xdr:ext cx="8661400" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1322,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1383,7 +1395,7 @@
         <v>3.1190000000000002</v>
       </c>
       <c r="F2" s="12">
-        <f>E2-$F$7</f>
+        <f>E2-$F$8</f>
         <v>3.1105</v>
       </c>
       <c r="G2" s="12">
@@ -1416,7 +1428,7 @@
         <v>2.5329999999999999</v>
       </c>
       <c r="F3" s="12">
-        <f t="shared" ref="F3:F5" si="0">E3-$F$7</f>
+        <f t="shared" ref="F3:F5" si="0">E3-$F$8</f>
         <v>2.5244999999999997</v>
       </c>
       <c r="G3" s="12">
@@ -1424,7 +1436,7 @@
         <v>1.3499999999999623E-2</v>
       </c>
       <c r="H3" s="12">
-        <f t="shared" ref="H3:H16" si="2">G3/0.05</f>
+        <f t="shared" ref="H3:H18" si="2">G3/0.05</f>
         <v>0.26999999999999247</v>
       </c>
       <c r="I3" s="12">
@@ -1498,118 +1510,121 @@
         <v>0.36741214057507487</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
-        <v>42342</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="13">
-        <v>2.88</v>
-      </c>
-      <c r="E6" s="13">
-        <v>2.8879999999999999</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>42349</v>
+      </c>
+      <c r="B6" s="12">
+        <v>2</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2.782</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2.8180000000000001</v>
+      </c>
+      <c r="F6" s="12">
+        <f>E6-$F$8</f>
+        <v>2.8094999999999999</v>
+      </c>
+      <c r="G6" s="12">
+        <f>F6-D6</f>
+        <v>2.7499999999999858E-2</v>
+      </c>
+      <c r="H6" s="12">
+        <f>G6/0.05</f>
+        <v>0.54999999999999716</v>
+      </c>
+      <c r="I6" s="12">
+        <f>H6/C6</f>
+        <v>0.64705882352940847</v>
+      </c>
+      <c r="J6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>42342</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>65</v>
       </c>
       <c r="D7" s="13">
+        <v>2.88</v>
+      </c>
+      <c r="E7" s="13">
+        <v>2.8879999999999999</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>42342</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="13">
         <v>2.6019999999999999</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E8" s="13">
         <v>2.6110000000000002</v>
       </c>
-      <c r="F7" s="13">
-        <f>AVERAGE((E6-D6),(E7-D7))</f>
+      <c r="F8" s="13">
+        <f>AVERAGE((E7-D7),(E8-D8))</f>
         <v>8.5000000000001741E-3</v>
       </c>
-      <c r="G7" s="13">
-        <f>STDEV((E6-D6),(E7-D7))</f>
+      <c r="G8" s="13">
+        <f>STDEV((E7-D7),(E8-D8))</f>
         <v>7.0710678118678365E-4</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
       <c r="H8" s="16"/>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
-        <v>42343</v>
-      </c>
-      <c r="B9" s="13">
-        <v>1</v>
-      </c>
-      <c r="C9" s="13">
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="D9" s="13">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="E9" s="13">
-        <v>2.855</v>
-      </c>
-      <c r="F9" s="13">
-        <f t="shared" ref="F9:F16" si="4">E9-$F$7</f>
-        <v>2.8464999999999998</v>
-      </c>
-      <c r="G9">
-        <f t="shared" ref="G9:G16" si="5">F9-D9</f>
-        <v>1.3499999999999623E-2</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
-        <v>0.26999999999999247</v>
-      </c>
-      <c r="I9">
-        <f>H9/C9</f>
-        <v>0.42586750788642347</v>
-      </c>
+      <c r="A9" s="14"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>42343</v>
       </c>
       <c r="B10" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="13">
         <v>0.63400000000000001</v>
       </c>
       <c r="D10" s="13">
-        <v>2.8620000000000001</v>
+        <v>2.8330000000000002</v>
       </c>
       <c r="E10" s="13">
-        <v>2.8839999999999999</v>
+        <v>2.855</v>
       </c>
       <c r="F10" s="13">
-        <f t="shared" si="4"/>
-        <v>2.8754999999999997</v>
+        <f t="shared" ref="F10:F18" si="4">E10-$F$8</f>
+        <v>2.8464999999999998</v>
       </c>
       <c r="G10">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G10:G18" si="5">F10-D10</f>
         <v>1.3499999999999623E-2</v>
       </c>
       <c r="H10">
@@ -1617,41 +1632,41 @@
         <v>0.26999999999999247</v>
       </c>
       <c r="I10">
-        <f t="shared" ref="I10:I16" si="6">H10/C10</f>
+        <f>H10/C10</f>
         <v>0.42586750788642347</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
-        <v>42345</v>
+        <v>42343</v>
       </c>
       <c r="B11" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="13">
-        <v>0.66200000000000003</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="D11" s="13">
-        <v>3.0019999999999998</v>
+        <v>2.8620000000000001</v>
       </c>
       <c r="E11" s="13">
-        <v>3.0270000000000001</v>
+        <v>2.8839999999999999</v>
       </c>
       <c r="F11" s="13">
         <f t="shared" si="4"/>
-        <v>3.0185</v>
+        <v>2.8754999999999997</v>
       </c>
       <c r="G11">
         <f t="shared" si="5"/>
-        <v>1.6500000000000181E-2</v>
+        <v>1.3499999999999623E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>0.33000000000000362</v>
+        <v>0.26999999999999247</v>
       </c>
       <c r="I11">
-        <f t="shared" si="6"/>
-        <v>0.49848942598187856</v>
+        <f t="shared" ref="I11:I18" si="6">H11/C11</f>
+        <v>0.42586750788642347</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -1659,65 +1674,65 @@
         <v>42345</v>
       </c>
       <c r="B12" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="13">
         <v>0.66200000000000003</v>
       </c>
       <c r="D12" s="13">
-        <v>3.1480000000000001</v>
+        <v>3.0019999999999998</v>
       </c>
       <c r="E12" s="13">
-        <v>3.169</v>
+        <v>3.0270000000000001</v>
       </c>
       <c r="F12" s="13">
         <f t="shared" si="4"/>
-        <v>3.1604999999999999</v>
+        <v>3.0185</v>
       </c>
       <c r="G12">
         <f t="shared" si="5"/>
-        <v>1.2499999999999734E-2</v>
+        <v>1.6500000000000181E-2</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>0.24999999999999467</v>
+        <v>0.33000000000000362</v>
       </c>
       <c r="I12">
         <f t="shared" si="6"/>
-        <v>0.37764350453171397</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
-        <v>42346</v>
+        <v>0.49848942598187856</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>42345</v>
       </c>
       <c r="B13" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="13">
-        <v>0.84499999999999997</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="D13" s="13">
-        <v>2.7839999999999998</v>
+        <v>3.1480000000000001</v>
       </c>
       <c r="E13" s="13">
-        <v>2.8180000000000001</v>
+        <v>3.169</v>
       </c>
       <c r="F13" s="13">
         <f t="shared" si="4"/>
-        <v>2.8094999999999999</v>
+        <v>3.1604999999999999</v>
       </c>
       <c r="G13">
         <f t="shared" si="5"/>
-        <v>2.5500000000000078E-2</v>
+        <v>1.2499999999999734E-2</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>0.51000000000000156</v>
+        <v>0.24999999999999467</v>
       </c>
       <c r="I13">
         <f t="shared" si="6"/>
-        <v>0.60355029585799003</v>
+        <v>0.37764350453171397</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1725,111 +1740,192 @@
         <v>42346</v>
       </c>
       <c r="B14" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="13">
         <v>0.84499999999999997</v>
       </c>
       <c r="D14" s="13">
-        <v>2.8730000000000002</v>
+        <v>2.7839999999999998</v>
       </c>
       <c r="E14" s="13">
-        <v>2.9</v>
+        <v>2.8180000000000001</v>
       </c>
       <c r="F14" s="13">
         <f t="shared" si="4"/>
-        <v>2.8914999999999997</v>
+        <v>2.8094999999999999</v>
       </c>
       <c r="G14">
         <f t="shared" si="5"/>
-        <v>1.8499999999999517E-2</v>
+        <v>2.5500000000000078E-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>0.36999999999999034</v>
+        <v>0.51000000000000156</v>
       </c>
       <c r="I14">
         <f t="shared" si="6"/>
-        <v>0.43786982248519568</v>
+        <v>0.60355029585799003</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
-        <v>42349</v>
+        <v>42346</v>
       </c>
       <c r="B15" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="13">
-        <v>0.85</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="D15" s="13">
-        <v>2.88</v>
+        <v>2.8730000000000002</v>
       </c>
       <c r="E15" s="13">
-        <v>2.9079999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="F15" s="13">
         <f t="shared" si="4"/>
-        <v>2.8994999999999997</v>
+        <v>2.8914999999999997</v>
       </c>
       <c r="G15">
         <f t="shared" si="5"/>
-        <v>1.9499999999999851E-2</v>
+        <v>1.8499999999999517E-2</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>0.38999999999999702</v>
+        <v>0.36999999999999034</v>
       </c>
       <c r="I15">
         <f t="shared" si="6"/>
+        <v>0.43786982248519568</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>42349</v>
+      </c>
+      <c r="B16" s="13">
+        <v>1</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="D16" s="13">
+        <v>2.88</v>
+      </c>
+      <c r="E16" s="13">
+        <v>2.9079999999999999</v>
+      </c>
+      <c r="F16" s="13">
+        <f t="shared" si="4"/>
+        <v>2.8994999999999997</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>1.9499999999999851E-2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0.38999999999999702</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="6"/>
         <v>0.45882352941176119</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>42349</v>
-      </c>
-      <c r="B16" s="12">
-        <v>2</v>
-      </c>
-      <c r="C16" s="12">
-        <v>0.85</v>
-      </c>
-      <c r="D16" s="12">
-        <v>2.782</v>
-      </c>
-      <c r="E16" s="12">
-        <v>2.8180000000000001</v>
-      </c>
-      <c r="F16" s="12">
-        <f t="shared" si="4"/>
-        <v>2.8094999999999999</v>
-      </c>
-      <c r="G16" s="12">
-        <f t="shared" si="5"/>
-        <v>2.7499999999999858E-2</v>
-      </c>
-      <c r="H16" s="12">
-        <f t="shared" si="2"/>
-        <v>0.54999999999999716</v>
-      </c>
-      <c r="I16" s="12">
-        <f t="shared" si="6"/>
-        <v>0.64705882352940847</v>
-      </c>
-      <c r="J16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>42353</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="13">
+        <v>1</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="D17" s="13">
+        <v>2.835</v>
+      </c>
+      <c r="E17" s="13">
+        <v>2.8650000000000002</v>
+      </c>
+      <c r="F17" s="13">
+        <f t="shared" si="4"/>
+        <v>2.8565</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="5"/>
+        <v>2.1500000000000075E-2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0.43000000000000149</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="6"/>
+        <v>0.54707379134860235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>42353</v>
+      </c>
+      <c r="B18" s="13">
+        <v>2</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="D18" s="13">
+        <v>2.871</v>
+      </c>
+      <c r="E18" s="13">
+        <v>2.8969999999999998</v>
+      </c>
+      <c r="F18" s="13">
+        <f t="shared" si="4"/>
+        <v>2.8884999999999996</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>1.7499999999999627E-2</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0.34999999999999254</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="6"/>
+        <v>0.44529262086513044</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>42354</v>
+      </c>
+      <c r="B19" s="13">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="D19" s="13">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>42354</v>
+      </c>
+      <c r="B20" s="13">
+        <v>2</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="D20" s="13">
+        <v>2.859</v>
       </c>
     </row>
   </sheetData>

--- a/Experimental Results/cell dry weight measurements.xlsx
+++ b/Experimental Results/cell dry weight measurements.xlsx
@@ -411,10 +411,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Filtering and Spin'!$C$10:$C$18</c:f>
+              <c:f>'Filtering and Spin'!$C$10:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.63400000000000001</c:v>
                 </c:pt>
@@ -441,16 +441,22 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.78600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.46600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.46600000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Filtering and Spin'!$H$10:$H$18</c:f>
+              <c:f>'Filtering and Spin'!$H$10:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.26999999999999247</c:v>
                 </c:pt>
@@ -473,10 +479,16 @@
                   <c:v>0.38999999999999702</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.43000000000000149</c:v>
+                  <c:v>0.38999999999999702</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.34999999999999254</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1699999999999946</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1899999999999924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -491,11 +503,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="135849856"/>
-        <c:axId val="135851392"/>
+        <c:axId val="146139008"/>
+        <c:axId val="146140544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135849856"/>
+        <c:axId val="146139008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -515,12 +527,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135851392"/>
+        <c:crossAx val="146140544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135851392"/>
+        <c:axId val="146140544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -541,7 +553,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135849856"/>
+        <c:crossAx val="146139008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -660,11 +672,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="136749056"/>
-        <c:axId val="136750592"/>
+        <c:axId val="146780160"/>
+        <c:axId val="146781696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="136749056"/>
+        <c:axId val="146780160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -674,12 +686,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136750592"/>
+        <c:crossAx val="146781696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="136750592"/>
+        <c:axId val="146781696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -690,7 +702,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136749056"/>
+        <c:crossAx val="146780160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -861,11 +873,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137914240"/>
-        <c:axId val="137916416"/>
+        <c:axId val="147154816"/>
+        <c:axId val="147156992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137914240"/>
+        <c:axId val="147154816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -893,12 +905,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137916416"/>
+        <c:crossAx val="147156992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137916416"/>
+        <c:axId val="147156992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -927,7 +939,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137914240"/>
+        <c:crossAx val="147154816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1334,10 +1346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1436,7 +1448,7 @@
         <v>1.3499999999999623E-2</v>
       </c>
       <c r="H3" s="12">
-        <f t="shared" ref="H3:H18" si="2">G3/0.05</f>
+        <f t="shared" ref="H3:H20" si="2">G3/0.05</f>
         <v>0.26999999999999247</v>
       </c>
       <c r="I3" s="12">
@@ -1620,11 +1632,11 @@
         <v>2.855</v>
       </c>
       <c r="F10" s="13">
-        <f t="shared" ref="F10:F18" si="4">E10-$F$8</f>
+        <f t="shared" ref="F10:F20" si="4">E10-$F$8</f>
         <v>2.8464999999999998</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="G10:G18" si="5">F10-D10</f>
+        <f t="shared" ref="G10:G20" si="5">F10-D10</f>
         <v>1.3499999999999623E-2</v>
       </c>
       <c r="H10">
@@ -1665,7 +1677,7 @@
         <v>0.26999999999999247</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:I18" si="6">H11/C11</f>
+        <f t="shared" ref="I11:I20" si="6">H11/C11</f>
         <v>0.42586750788642347</v>
       </c>
     </row>
@@ -1848,23 +1860,23 @@
         <v>2.835</v>
       </c>
       <c r="E17" s="13">
-        <v>2.8650000000000002</v>
+        <v>2.863</v>
       </c>
       <c r="F17" s="13">
         <f t="shared" si="4"/>
-        <v>2.8565</v>
+        <v>2.8544999999999998</v>
       </c>
       <c r="G17">
         <f t="shared" si="5"/>
-        <v>2.1500000000000075E-2</v>
+        <v>1.9499999999999851E-2</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>0.43000000000000149</v>
+        <v>0.38999999999999702</v>
       </c>
       <c r="I17">
         <f t="shared" si="6"/>
-        <v>0.54707379134860235</v>
+        <v>0.49618320610686639</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1913,6 +1925,25 @@
       <c r="D19" s="13">
         <v>3.08</v>
       </c>
+      <c r="E19" s="13">
+        <v>3.097</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" si="4"/>
+        <v>3.0884999999999998</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>8.49999999999973E-3</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0.1699999999999946</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="6"/>
+        <v>0.36480686695277809</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
@@ -1926,6 +1957,53 @@
       </c>
       <c r="D20" s="13">
         <v>2.859</v>
+      </c>
+      <c r="E20" s="13">
+        <v>2.8769999999999998</v>
+      </c>
+      <c r="F20" s="13">
+        <f t="shared" si="4"/>
+        <v>2.8684999999999996</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="5"/>
+        <v>9.4999999999996199E-3</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>0.1899999999999924</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="6"/>
+        <v>0.40772532188839566</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>42355</v>
+      </c>
+      <c r="B21" s="13">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="D21" s="13">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>42355</v>
+      </c>
+      <c r="B22" s="13">
+        <v>2</v>
+      </c>
+      <c r="C22" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="D22" s="13">
+        <v>2.7559999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Experimental Results/cell dry weight measurements.xlsx
+++ b/Experimental Results/cell dry weight measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" activeTab="1"/>
+    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832"/>
   </bookViews>
   <sheets>
     <sheet name="Filtering and Spin" sheetId="5" r:id="rId1"/>
@@ -411,10 +411,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Filtering and Spin'!$C$10:$C$20</c:f>
+              <c:f>'Filtering and Spin'!$C$10:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.63400000000000001</c:v>
                 </c:pt>
@@ -447,16 +447,22 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.46600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Filtering and Spin'!$H$10:$H$20</c:f>
+              <c:f>'Filtering and Spin'!$H$10:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.26999999999999247</c:v>
                 </c:pt>
@@ -482,13 +488,19 @@
                   <c:v>0.38999999999999702</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.34999999999999254</c:v>
+                  <c:v>0.36999999999999922</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.1699999999999946</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1899999999999924</c:v>
+                  <c:v>0.1699999999999946</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.44999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43000000000000149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -503,11 +515,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146139008"/>
-        <c:axId val="146140544"/>
+        <c:axId val="127133568"/>
+        <c:axId val="127135104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146139008"/>
+        <c:axId val="127133568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -527,12 +539,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146140544"/>
+        <c:crossAx val="127135104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146140544"/>
+        <c:axId val="127135104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -553,7 +565,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146139008"/>
+        <c:crossAx val="127133568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -672,11 +684,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146780160"/>
-        <c:axId val="146781696"/>
+        <c:axId val="131969024"/>
+        <c:axId val="131970560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146780160"/>
+        <c:axId val="131969024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -686,12 +698,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146781696"/>
+        <c:crossAx val="131970560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146781696"/>
+        <c:axId val="131970560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -702,7 +714,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146780160"/>
+        <c:crossAx val="131969024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -873,11 +885,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147154816"/>
-        <c:axId val="147156992"/>
+        <c:axId val="134571904"/>
+        <c:axId val="134574080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147154816"/>
+        <c:axId val="134571904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -905,12 +917,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147156992"/>
+        <c:crossAx val="134574080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147156992"/>
+        <c:axId val="134574080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -939,7 +951,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147154816"/>
+        <c:crossAx val="134571904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -960,7 +972,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="60" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1348,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1448,7 +1460,7 @@
         <v>1.3499999999999623E-2</v>
       </c>
       <c r="H3" s="12">
-        <f t="shared" ref="H3:H20" si="2">G3/0.05</f>
+        <f t="shared" ref="H3:H22" si="2">G3/0.05</f>
         <v>0.26999999999999247</v>
       </c>
       <c r="I3" s="12">
@@ -1632,11 +1644,11 @@
         <v>2.855</v>
       </c>
       <c r="F10" s="13">
-        <f t="shared" ref="F10:F20" si="4">E10-$F$8</f>
+        <f t="shared" ref="F10:F22" si="4">E10-$F$8</f>
         <v>2.8464999999999998</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="G10:G20" si="5">F10-D10</f>
+        <f t="shared" ref="G10:G22" si="5">F10-D10</f>
         <v>1.3499999999999623E-2</v>
       </c>
       <c r="H10">
@@ -1677,7 +1689,7 @@
         <v>0.26999999999999247</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:I20" si="6">H11/C11</f>
+        <f t="shared" ref="I11:I22" si="6">H11/C11</f>
         <v>0.42586750788642347</v>
       </c>
     </row>
@@ -1893,23 +1905,23 @@
         <v>2.871</v>
       </c>
       <c r="E18" s="13">
-        <v>2.8969999999999998</v>
+        <v>2.8980000000000001</v>
       </c>
       <c r="F18" s="13">
         <f t="shared" si="4"/>
-        <v>2.8884999999999996</v>
+        <v>2.8895</v>
       </c>
       <c r="G18">
         <f t="shared" si="5"/>
-        <v>1.7499999999999627E-2</v>
+        <v>1.8499999999999961E-2</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>0.34999999999999254</v>
+        <v>0.36999999999999922</v>
       </c>
       <c r="I18">
         <f t="shared" si="6"/>
-        <v>0.44529262086513044</v>
+        <v>0.47073791348600408</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1959,23 +1971,23 @@
         <v>2.859</v>
       </c>
       <c r="E20" s="13">
-        <v>2.8769999999999998</v>
+        <v>2.8759999999999999</v>
       </c>
       <c r="F20" s="13">
         <f t="shared" si="4"/>
-        <v>2.8684999999999996</v>
+        <v>2.8674999999999997</v>
       </c>
       <c r="G20">
         <f t="shared" si="5"/>
-        <v>9.4999999999996199E-3</v>
+        <v>8.49999999999973E-3</v>
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>0.1899999999999924</v>
+        <v>0.1699999999999946</v>
       </c>
       <c r="I20">
         <f t="shared" si="6"/>
-        <v>0.40772532188839566</v>
+        <v>0.36480686695277809</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1991,6 +2003,25 @@
       <c r="D21" s="13">
         <v>2.5099999999999998</v>
       </c>
+      <c r="E21" s="13">
+        <v>2.5409999999999999</v>
+      </c>
+      <c r="F21" s="13">
+        <f t="shared" si="4"/>
+        <v>2.5324999999999998</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>2.2499999999999964E-2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>0.44999999999999929</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="6"/>
+        <v>0.51136363636363558</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
@@ -2004,6 +2035,25 @@
       </c>
       <c r="D22" s="13">
         <v>2.7559999999999998</v>
+      </c>
+      <c r="E22" s="13">
+        <v>2.786</v>
+      </c>
+      <c r="F22" s="13">
+        <f t="shared" si="4"/>
+        <v>2.7774999999999999</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>2.1500000000000075E-2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>0.43000000000000149</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="6"/>
+        <v>0.48863636363636531</v>
       </c>
     </row>
   </sheetData>

--- a/Experimental Results/cell dry weight measurements.xlsx
+++ b/Experimental Results/cell dry weight measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832"/>
+    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Filtering and Spin" sheetId="5" r:id="rId1"/>
@@ -515,11 +515,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="127133568"/>
-        <c:axId val="127135104"/>
+        <c:axId val="106329984"/>
+        <c:axId val="106331520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="127133568"/>
+        <c:axId val="106329984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -539,12 +539,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127135104"/>
+        <c:crossAx val="106331520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="127135104"/>
+        <c:axId val="106331520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -565,7 +565,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127133568"/>
+        <c:crossAx val="106329984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -684,11 +684,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="131969024"/>
-        <c:axId val="131970560"/>
+        <c:axId val="113926144"/>
+        <c:axId val="113927680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="131969024"/>
+        <c:axId val="113926144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -698,12 +698,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131970560"/>
+        <c:crossAx val="113927680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="131970560"/>
+        <c:axId val="113927680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -714,7 +714,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131969024"/>
+        <c:crossAx val="113926144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -885,11 +885,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="134571904"/>
-        <c:axId val="134574080"/>
+        <c:axId val="113952640"/>
+        <c:axId val="113958912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="134571904"/>
+        <c:axId val="113952640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -917,12 +917,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134574080"/>
+        <c:crossAx val="113958912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="134574080"/>
+        <c:axId val="113958912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -951,7 +951,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134571904"/>
+        <c:crossAx val="113952640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -972,7 +972,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="60" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -983,7 +983,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6286500"/>
+    <xdr:ext cx="8670000" cy="6300000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1360,20 +1360,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>42341</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>0.46031746031745896</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>42341</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>0.42857142857141661</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>42341</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>0.59105431309904033</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>42341</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>0.36741214057507487</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>42349</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>42342</v>
       </c>
@@ -1595,7 +1595,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>42342</v>
       </c>
@@ -1622,12 +1622,12 @@
       <c r="H8" s="16"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="H9" s="16"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>42343</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>0.42586750788642347</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>42343</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>0.42586750788642347</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>42345</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>0.49848942598187856</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>42345</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>0.37764350453171397</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>42346</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>0.60355029585799003</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>42346</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>0.43786982248519568</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>42349</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>0.45882352941176119</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>42353</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>0.49618320610686639</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>42353</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>0.47073791348600408</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>42354</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>0.36480686695277809</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>42354</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>0.36480686695277809</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>42355</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>0.51136363636363558</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>42355</v>
       </c>
@@ -2069,21 +2069,21 @@
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>0.35999999999997812</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>0.50699999999999967</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>0.60299999999999976</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>0.74800000000000111</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>0.48603351955306129</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2470,19 +2470,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>C8-K8</f>
         <v>0.59575000000000244</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="O16">
         <f>AVERAGE(O4:O7)</f>
         <v>0.13080932749067697</v>
       </c>
     </row>
-    <row r="17" spans="15:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O17" t="s">
         <v>12</v>
       </c>
@@ -2500,18 +2500,18 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>0.76000000000000512</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>2.0679999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>2.8359999999999985</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>1.5081967213114742</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2915,11 +2915,11 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -3039,12 +3039,12 @@
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="10">
         <v>42320</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>0.60000000000000053</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>0.54999999999998384</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>40</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>41</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>0.34999999999998366</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="O9">
         <v>0.69199999999999995</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>0.45000000000001705</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>42326</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>0.30000000000001137</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>0.34999999999998366</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>40</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>0.43333333333333002</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>41</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>7.6376261582610933E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>42327</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>36</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>0.45000000000001705</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>46</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>42</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="W25" t="s">
         <v>55</v>
       </c>

--- a/Experimental Results/cell dry weight measurements.xlsx
+++ b/Experimental Results/cell dry weight measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835" activeTab="1"/>
+    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832"/>
   </bookViews>
   <sheets>
     <sheet name="Filtering and Spin" sheetId="5" r:id="rId1"/>
@@ -488,16 +488,16 @@
                   <c:v>0.38999999999999702</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.36999999999999922</c:v>
+                  <c:v>0.32999999999999474</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.1699999999999946</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1699999999999946</c:v>
+                  <c:v>0.1499999999999968</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.44999999999999929</c:v>
+                  <c:v>0.43000000000000149</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.43000000000000149</c:v>
@@ -515,11 +515,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="106329984"/>
-        <c:axId val="106331520"/>
+        <c:axId val="137029504"/>
+        <c:axId val="137031040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106329984"/>
+        <c:axId val="137029504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -539,12 +539,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106331520"/>
+        <c:crossAx val="137031040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106331520"/>
+        <c:axId val="137031040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -565,7 +565,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106329984"/>
+        <c:crossAx val="137029504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -684,11 +684,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="113926144"/>
-        <c:axId val="113927680"/>
+        <c:axId val="148160512"/>
+        <c:axId val="148162048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113926144"/>
+        <c:axId val="148160512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -698,12 +698,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113927680"/>
+        <c:crossAx val="148162048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113927680"/>
+        <c:axId val="148162048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -714,7 +714,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113926144"/>
+        <c:crossAx val="148160512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -885,11 +885,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="113952640"/>
-        <c:axId val="113958912"/>
+        <c:axId val="148531072"/>
+        <c:axId val="148533248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113952640"/>
+        <c:axId val="148531072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -917,12 +917,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113958912"/>
+        <c:crossAx val="148533248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113958912"/>
+        <c:axId val="148533248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -951,7 +951,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113952640"/>
+        <c:crossAx val="148531072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -972,7 +972,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="60" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -983,7 +983,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8670000" cy="6300000"/>
+    <xdr:ext cx="8661400" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1358,22 +1358,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>42341</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>0.46031746031745896</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>42341</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>1.3499999999999623E-2</v>
       </c>
       <c r="H3" s="12">
-        <f t="shared" ref="H3:H22" si="2">G3/0.05</f>
+        <f t="shared" ref="H3:H24" si="2">G3/0.05</f>
         <v>0.26999999999999247</v>
       </c>
       <c r="I3" s="12">
@@ -1468,7 +1468,7 @@
         <v>0.42857142857141661</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>42341</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>0.59105431309904033</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>42341</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>0.36741214057507487</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>42349</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>42342</v>
       </c>
@@ -1595,7 +1595,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>42342</v>
       </c>
@@ -1622,12 +1622,12 @@
       <c r="H8" s="16"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="H9" s="16"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>42343</v>
       </c>
@@ -1644,11 +1644,11 @@
         <v>2.855</v>
       </c>
       <c r="F10" s="13">
-        <f t="shared" ref="F10:F22" si="4">E10-$F$8</f>
+        <f t="shared" ref="F10:F24" si="4">E10-$F$8</f>
         <v>2.8464999999999998</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="G10:G22" si="5">F10-D10</f>
+        <f t="shared" ref="G10:G24" si="5">F10-D10</f>
         <v>1.3499999999999623E-2</v>
       </c>
       <c r="H10">
@@ -1660,7 +1660,7 @@
         <v>0.42586750788642347</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>42343</v>
       </c>
@@ -1689,11 +1689,11 @@
         <v>0.26999999999999247</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:I22" si="6">H11/C11</f>
+        <f t="shared" ref="I11:I24" si="6">H11/C11</f>
         <v>0.42586750788642347</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>42345</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>0.49848942598187856</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>42345</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>0.37764350453171397</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>42346</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>0.60355029585799003</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>42346</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>0.43786982248519568</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>42349</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>0.45882352941176119</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>42353</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>0.49618320610686639</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>42353</v>
       </c>
@@ -1905,26 +1905,26 @@
         <v>2.871</v>
       </c>
       <c r="E18" s="13">
-        <v>2.8980000000000001</v>
+        <v>2.8959999999999999</v>
       </c>
       <c r="F18" s="13">
         <f t="shared" si="4"/>
-        <v>2.8895</v>
+        <v>2.8874999999999997</v>
       </c>
       <c r="G18">
         <f t="shared" si="5"/>
-        <v>1.8499999999999961E-2</v>
+        <v>1.6499999999999737E-2</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>0.36999999999999922</v>
+        <v>0.32999999999999474</v>
       </c>
       <c r="I18">
         <f t="shared" si="6"/>
-        <v>0.47073791348600408</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+        <v>0.41984732824426813</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>42354</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>0.36480686695277809</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>42354</v>
       </c>
@@ -1971,26 +1971,26 @@
         <v>2.859</v>
       </c>
       <c r="E20" s="13">
-        <v>2.8759999999999999</v>
+        <v>2.875</v>
       </c>
       <c r="F20" s="13">
         <f t="shared" si="4"/>
-        <v>2.8674999999999997</v>
+        <v>2.8664999999999998</v>
       </c>
       <c r="G20">
         <f t="shared" si="5"/>
-        <v>8.49999999999973E-3</v>
+        <v>7.4999999999998401E-3</v>
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>0.1699999999999946</v>
+        <v>0.1499999999999968</v>
       </c>
       <c r="I20">
         <f t="shared" si="6"/>
-        <v>0.36480686695277809</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+        <v>0.32188841201716051</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>42355</v>
       </c>
@@ -2004,26 +2004,26 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="E21" s="13">
-        <v>2.5409999999999999</v>
+        <v>2.54</v>
       </c>
       <c r="F21" s="13">
         <f t="shared" si="4"/>
-        <v>2.5324999999999998</v>
+        <v>2.5314999999999999</v>
       </c>
       <c r="G21">
         <f t="shared" si="5"/>
-        <v>2.2499999999999964E-2</v>
+        <v>2.1500000000000075E-2</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>0.44999999999999929</v>
+        <v>0.43000000000000149</v>
       </c>
       <c r="I21">
         <f t="shared" si="6"/>
-        <v>0.51136363636363558</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+        <v>0.48863636363636531</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>42355</v>
       </c>
@@ -2054,6 +2054,72 @@
       <c r="I22">
         <f t="shared" si="6"/>
         <v>0.48863636363636531</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>42357</v>
+      </c>
+      <c r="B23" s="13">
+        <v>1</v>
+      </c>
+      <c r="C23" s="13">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="D23" s="13">
+        <v>2.738</v>
+      </c>
+      <c r="E23" s="13">
+        <v>2.7650000000000001</v>
+      </c>
+      <c r="F23" s="13">
+        <f t="shared" si="4"/>
+        <v>2.7565</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>1.8499999999999961E-2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>0.36999999999999922</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="6"/>
+        <v>0.46717171717171618</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>42357</v>
+      </c>
+      <c r="B24" s="13">
+        <v>2</v>
+      </c>
+      <c r="C24" s="13">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="D24" s="13">
+        <v>2.7109999999999999</v>
+      </c>
+      <c r="E24" s="13">
+        <v>2.7389999999999999</v>
+      </c>
+      <c r="F24" s="13">
+        <f t="shared" si="4"/>
+        <v>2.7304999999999997</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="5"/>
+        <v>1.9499999999999851E-2</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>0.38999999999999702</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="6"/>
+        <v>0.49242424242423866</v>
       </c>
     </row>
   </sheetData>
@@ -2069,21 +2135,21 @@
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2097,7 +2163,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2138,7 +2204,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2183,7 +2249,7 @@
         <v>0.35999999999997812</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2232,7 +2298,7 @@
         <v>0.50699999999999967</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2281,7 +2347,7 @@
         <v>0.60299999999999976</v>
       </c>
     </row>
-    <row r="7" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2330,7 +2396,7 @@
         <v>0.74800000000000111</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2378,7 +2444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2428,7 +2494,7 @@
         <v>0.48603351955306129</v>
       </c>
     </row>
-    <row r="10" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2470,19 +2536,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>C8-K8</f>
         <v>0.59575000000000244</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O16">
         <f>AVERAGE(O4:O7)</f>
         <v>0.13080932749067697</v>
       </c>
     </row>
-    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="15:15" ht="15" x14ac:dyDescent="0.25">
       <c r="O17" t="s">
         <v>12</v>
       </c>
@@ -2500,18 +2566,18 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2525,7 +2591,7 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2566,7 +2632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2612,7 +2678,7 @@
         <v>0.76000000000000512</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2662,7 +2728,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2712,7 +2778,7 @@
         <v>2.0679999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2762,7 +2828,7 @@
         <v>2.8359999999999985</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2810,7 +2876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2860,7 +2926,7 @@
         <v>1.5081967213114742</v>
       </c>
     </row>
-    <row r="10" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2915,11 +2981,11 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -3039,12 +3105,12 @@
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="10">
         <v>42320</v>
       </c>
@@ -3067,7 +3133,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -3107,7 +3173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -3154,7 +3220,7 @@
         <v>0.60000000000000053</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3203,7 +3269,7 @@
         <v>0.54999999999998384</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3241,7 +3307,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3279,7 +3345,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>40</v>
       </c>
@@ -3302,7 +3368,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>41</v>
       </c>
@@ -3325,7 +3391,7 @@
         <v>0.34999999999998366</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O9">
         <v>0.69199999999999995</v>
       </c>
@@ -3333,7 +3399,7 @@
         <v>0.45000000000001705</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>42326</v>
       </c>
@@ -3350,7 +3416,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -3382,7 +3448,7 @@
         <v>0.30000000000001137</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3411,7 +3477,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3440,7 +3506,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -3469,7 +3535,7 @@
         <v>0.34999999999998366</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>40</v>
       </c>
@@ -3486,7 +3552,7 @@
         <v>0.43333333333333002</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>41</v>
       </c>
@@ -3503,7 +3569,7 @@
         <v>7.6376261582610933E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>42327</v>
       </c>
@@ -3514,7 +3580,7 @@
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>36</v>
       </c>
@@ -3534,7 +3600,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3560,7 +3626,7 @@
         <v>0.45000000000001705</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3586,7 +3652,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -3630,7 +3696,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>46</v>
       </c>
@@ -3667,7 +3733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>42</v>
       </c>
@@ -3704,7 +3770,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="W25" t="s">
         <v>55</v>
       </c>

--- a/Experimental Results/cell dry weight measurements.xlsx
+++ b/Experimental Results/cell dry weight measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832"/>
+    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Filtering and Spin" sheetId="5" r:id="rId1"/>
@@ -411,10 +411,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Filtering and Spin'!$C$10:$C$22</c:f>
+              <c:f>'Filtering and Spin'!$C$10:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.63400000000000001</c:v>
                 </c:pt>
@@ -453,16 +453,22 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.79200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.79200000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Filtering and Spin'!$H$10:$H$22</c:f>
+              <c:f>'Filtering and Spin'!$H$10:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.26999999999999247</c:v>
                 </c:pt>
@@ -491,16 +497,22 @@
                   <c:v>0.32999999999999474</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1699999999999946</c:v>
+                  <c:v>0.1499999999999968</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.1499999999999968</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.43000000000000149</c:v>
+                  <c:v>0.44999999999999929</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.43000000000000149</c:v>
+                  <c:v>0.41000000000000369</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.36999999999999922</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.41000000000000369</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -515,11 +527,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137029504"/>
-        <c:axId val="137031040"/>
+        <c:axId val="113895296"/>
+        <c:axId val="113896832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137029504"/>
+        <c:axId val="113895296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -539,12 +551,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137031040"/>
+        <c:crossAx val="113896832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137031040"/>
+        <c:axId val="113896832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -565,7 +577,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137029504"/>
+        <c:crossAx val="113895296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -684,11 +696,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="148160512"/>
-        <c:axId val="148162048"/>
+        <c:axId val="131874816"/>
+        <c:axId val="131876352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148160512"/>
+        <c:axId val="131874816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -698,12 +710,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148162048"/>
+        <c:crossAx val="131876352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148162048"/>
+        <c:axId val="131876352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -714,7 +726,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148160512"/>
+        <c:crossAx val="131874816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -885,11 +897,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="148531072"/>
-        <c:axId val="148533248"/>
+        <c:axId val="131917696"/>
+        <c:axId val="131919872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148531072"/>
+        <c:axId val="131917696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -917,12 +929,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148533248"/>
+        <c:crossAx val="131919872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148533248"/>
+        <c:axId val="131919872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -951,7 +963,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148531072"/>
+        <c:crossAx val="131917696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -972,7 +984,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="60" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1358,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1938,23 +1950,23 @@
         <v>3.08</v>
       </c>
       <c r="E19" s="13">
-        <v>3.097</v>
+        <v>3.0960000000000001</v>
       </c>
       <c r="F19" s="13">
         <f t="shared" si="4"/>
-        <v>3.0884999999999998</v>
+        <v>3.0874999999999999</v>
       </c>
       <c r="G19">
         <f t="shared" si="5"/>
-        <v>8.49999999999973E-3</v>
+        <v>7.4999999999998401E-3</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>0.1699999999999946</v>
+        <v>0.1499999999999968</v>
       </c>
       <c r="I19">
         <f t="shared" si="6"/>
-        <v>0.36480686695277809</v>
+        <v>0.32188841201716051</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -2004,23 +2016,23 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="E21" s="13">
-        <v>2.54</v>
+        <v>2.5409999999999999</v>
       </c>
       <c r="F21" s="13">
         <f t="shared" si="4"/>
-        <v>2.5314999999999999</v>
+        <v>2.5324999999999998</v>
       </c>
       <c r="G21">
         <f t="shared" si="5"/>
-        <v>2.1500000000000075E-2</v>
+        <v>2.2499999999999964E-2</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>0.43000000000000149</v>
+        <v>0.44999999999999929</v>
       </c>
       <c r="I21">
         <f t="shared" si="6"/>
-        <v>0.48863636363636531</v>
+        <v>0.51136363636363558</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -2037,23 +2049,23 @@
         <v>2.7559999999999998</v>
       </c>
       <c r="E22" s="13">
-        <v>2.786</v>
+        <v>2.7850000000000001</v>
       </c>
       <c r="F22" s="13">
         <f t="shared" si="4"/>
-        <v>2.7774999999999999</v>
+        <v>2.7765</v>
       </c>
       <c r="G22">
         <f t="shared" si="5"/>
-        <v>2.1500000000000075E-2</v>
+        <v>2.0500000000000185E-2</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>0.43000000000000149</v>
+        <v>0.41000000000000369</v>
       </c>
       <c r="I22">
         <f t="shared" si="6"/>
-        <v>0.48863636363636531</v>
+        <v>0.4659090909090951</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -2103,23 +2115,39 @@
         <v>2.7109999999999999</v>
       </c>
       <c r="E24" s="13">
-        <v>2.7389999999999999</v>
+        <v>2.74</v>
       </c>
       <c r="F24" s="13">
         <f t="shared" si="4"/>
-        <v>2.7304999999999997</v>
+        <v>2.7315</v>
       </c>
       <c r="G24">
         <f t="shared" si="5"/>
-        <v>1.9499999999999851E-2</v>
+        <v>2.0500000000000185E-2</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>0.38999999999999702</v>
+        <v>0.41000000000000369</v>
       </c>
       <c r="I24">
         <f t="shared" si="6"/>
-        <v>0.49242424242423866</v>
+        <v>0.51767676767677229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>42359</v>
+      </c>
+      <c r="B25" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>42359</v>
+      </c>
+      <c r="B26" s="13">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Experimental Results/cell dry weight measurements.xlsx
+++ b/Experimental Results/cell dry weight measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832" activeTab="1"/>
+    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832"/>
   </bookViews>
   <sheets>
     <sheet name="Filtering and Spin" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -232,12 +232,21 @@
   </si>
   <si>
     <t>&lt;- Broken Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stdev: </t>
+  </si>
+  <si>
+    <t>Error:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -275,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -320,11 +329,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -342,6 +413,12 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,6 +537,12 @@
                 <c:pt idx="14">
                   <c:v>0.79200000000000004</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.55600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.55600000000000005</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -503,16 +586,22 @@
                   <c:v>0.1499999999999968</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.44999999999999929</c:v>
+                  <c:v>0.43000000000000149</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.41000000000000369</c:v>
+                  <c:v>0.43000000000000149</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.36999999999999922</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.41000000000000369</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.27000000000000135</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.20999999999999019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -527,11 +616,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="113895296"/>
-        <c:axId val="113896832"/>
+        <c:axId val="105833984"/>
+        <c:axId val="105835520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113895296"/>
+        <c:axId val="105833984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -551,12 +640,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113896832"/>
+        <c:crossAx val="105835520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113896832"/>
+        <c:axId val="105835520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -577,7 +666,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113895296"/>
+        <c:crossAx val="105833984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -696,11 +785,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="131874816"/>
-        <c:axId val="131876352"/>
+        <c:axId val="120151424"/>
+        <c:axId val="120169600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="131874816"/>
+        <c:axId val="120151424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -710,12 +799,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131876352"/>
+        <c:crossAx val="120169600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="131876352"/>
+        <c:axId val="120169600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -726,7 +815,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131874816"/>
+        <c:crossAx val="120151424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -897,11 +986,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="131917696"/>
-        <c:axId val="131919872"/>
+        <c:axId val="121660928"/>
+        <c:axId val="121662848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="131917696"/>
+        <c:axId val="121660928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -929,12 +1018,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131919872"/>
+        <c:crossAx val="121662848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="131919872"/>
+        <c:axId val="121662848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -963,7 +1052,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131917696"/>
+        <c:crossAx val="121660928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -984,7 +1073,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="60" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1370,10 +1459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1472,7 +1561,7 @@
         <v>1.3499999999999623E-2</v>
       </c>
       <c r="H3" s="12">
-        <f t="shared" ref="H3:H24" si="2">G3/0.05</f>
+        <f t="shared" ref="H3:H26" si="2">G3/0.05</f>
         <v>0.26999999999999247</v>
       </c>
       <c r="I3" s="12">
@@ -1656,11 +1745,11 @@
         <v>2.855</v>
       </c>
       <c r="F10" s="13">
-        <f t="shared" ref="F10:F24" si="4">E10-$F$8</f>
+        <f t="shared" ref="F10:F26" si="4">E10-$F$8</f>
         <v>2.8464999999999998</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="G10:G24" si="5">F10-D10</f>
+        <f t="shared" ref="G10:G26" si="5">F10-D10</f>
         <v>1.3499999999999623E-2</v>
       </c>
       <c r="H10">
@@ -1701,7 +1790,7 @@
         <v>0.26999999999999247</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:I24" si="6">H11/C11</f>
+        <f t="shared" ref="I11:I26" si="6">H11/C11</f>
         <v>0.42586750788642347</v>
       </c>
     </row>
@@ -2016,23 +2105,23 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="E21" s="13">
-        <v>2.5409999999999999</v>
+        <v>2.54</v>
       </c>
       <c r="F21" s="13">
         <f t="shared" si="4"/>
-        <v>2.5324999999999998</v>
+        <v>2.5314999999999999</v>
       </c>
       <c r="G21">
         <f t="shared" si="5"/>
-        <v>2.2499999999999964E-2</v>
+        <v>2.1500000000000075E-2</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>0.44999999999999929</v>
+        <v>0.43000000000000149</v>
       </c>
       <c r="I21">
         <f t="shared" si="6"/>
-        <v>0.51136363636363558</v>
+        <v>0.48863636363636531</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -2049,23 +2138,23 @@
         <v>2.7559999999999998</v>
       </c>
       <c r="E22" s="13">
-        <v>2.7850000000000001</v>
+        <v>2.786</v>
       </c>
       <c r="F22" s="13">
         <f t="shared" si="4"/>
-        <v>2.7765</v>
+        <v>2.7774999999999999</v>
       </c>
       <c r="G22">
         <f t="shared" si="5"/>
-        <v>2.0500000000000185E-2</v>
+        <v>2.1500000000000075E-2</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>0.41000000000000369</v>
+        <v>0.43000000000000149</v>
       </c>
       <c r="I22">
         <f t="shared" si="6"/>
-        <v>0.4659090909090951</v>
+        <v>0.48863636363636531</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -2141,6 +2230,31 @@
       <c r="B25" s="13">
         <v>1</v>
       </c>
+      <c r="C25" s="13">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="D25" s="13">
+        <v>2.7229999999999999</v>
+      </c>
+      <c r="E25" s="13">
+        <v>2.7450000000000001</v>
+      </c>
+      <c r="F25" s="13">
+        <f t="shared" si="4"/>
+        <v>2.7364999999999999</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="5"/>
+        <v>1.3500000000000068E-2</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>0.27000000000000135</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="6"/>
+        <v>0.48561151079136927</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
@@ -2148,6 +2262,59 @@
       </c>
       <c r="B26" s="13">
         <v>2</v>
+      </c>
+      <c r="C26" s="13">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="D26" s="13">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="E26" s="13">
+        <v>2.8639999999999999</v>
+      </c>
+      <c r="F26" s="13">
+        <f t="shared" si="4"/>
+        <v>2.8554999999999997</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>1.049999999999951E-2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>0.20999999999999019</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="6"/>
+        <v>0.37769784172660104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H28" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="20">
+        <f>AVERAGE(I10:I26)</f>
+        <v>0.44784408923917829</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H29" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I29" s="21">
+        <f>STDEV(I10:I26)</f>
+        <v>7.1893444203942031E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H30" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I30" s="22">
+        <f>0.95*I29/SQRT(COUNT(I10:I26))</f>
+        <v>1.656488535471692E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Experimental Results/cell dry weight measurements.xlsx
+++ b/Experimental Results/cell dry weight measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832"/>
+    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Filtering and Spin" sheetId="5" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Trial 2" sheetId="2" r:id="rId4"/>
     <sheet name="Salts Calculations" sheetId="3" r:id="rId5"/>
     <sheet name="Filtering Method" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="80">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -234,20 +235,38 @@
     <t>&lt;- Broken Filter</t>
   </si>
   <si>
-    <t xml:space="preserve">Stdev: </t>
-  </si>
-  <si>
-    <t>Error:</t>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>r^2</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>regression ss</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>s(y)</t>
+  </si>
+  <si>
+    <t>DOF</t>
+  </si>
+  <si>
+    <t>Residual SS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,8 +282,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF363636"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF363636"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF363636"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,8 +320,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8D8D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -391,11 +446,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -416,9 +491,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,16 +707,39 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="105833984"/>
-        <c:axId val="105835520"/>
+        <c:axId val="103438592"/>
+        <c:axId val="103444480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="105833984"/>
+        <c:axId val="103438592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>OD</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="-25000"/>
+                  <a:t>660</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -640,18 +754,37 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105835520"/>
+        <c:crossAx val="103444480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="105835520"/>
+        <c:axId val="103444480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cell Density (mg/mL)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -666,7 +799,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105833984"/>
+        <c:crossAx val="103438592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -785,11 +918,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="120151424"/>
-        <c:axId val="120169600"/>
+        <c:axId val="105664896"/>
+        <c:axId val="105666432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="120151424"/>
+        <c:axId val="105664896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,12 +932,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120169600"/>
+        <c:crossAx val="105666432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="120169600"/>
+        <c:axId val="105666432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -815,7 +948,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120151424"/>
+        <c:crossAx val="105664896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -986,11 +1119,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="121660928"/>
-        <c:axId val="121662848"/>
+        <c:axId val="105699584"/>
+        <c:axId val="105701760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="121660928"/>
+        <c:axId val="105699584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1018,12 +1151,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121662848"/>
+        <c:crossAx val="105701760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="121662848"/>
+        <c:axId val="105701760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1052,7 +1185,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121660928"/>
+        <c:crossAx val="105699584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1073,7 +1206,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="60" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1084,7 +1217,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6286500"/>
+    <xdr:ext cx="8670000" cy="6300000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1459,22 +1592,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -1503,7 +1636,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>42341</v>
       </c>
@@ -1536,7 +1669,7 @@
         <v>0.46031746031745896</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>42341</v>
       </c>
@@ -1569,7 +1702,7 @@
         <v>0.42857142857141661</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>42341</v>
       </c>
@@ -1602,7 +1735,7 @@
         <v>0.59105431309904033</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>42341</v>
       </c>
@@ -1635,7 +1768,7 @@
         <v>0.36741214057507487</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>42349</v>
       </c>
@@ -1671,7 +1804,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>42342</v>
       </c>
@@ -1696,7 +1829,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>42342</v>
       </c>
@@ -1723,12 +1856,12 @@
       <c r="H8" s="16"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="H9" s="16"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>42343</v>
       </c>
@@ -1761,7 +1894,7 @@
         <v>0.42586750788642347</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>42343</v>
       </c>
@@ -1794,7 +1927,7 @@
         <v>0.42586750788642347</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>42345</v>
       </c>
@@ -1827,7 +1960,7 @@
         <v>0.49848942598187856</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>42345</v>
       </c>
@@ -1860,7 +1993,7 @@
         <v>0.37764350453171397</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>42346</v>
       </c>
@@ -1893,7 +2026,7 @@
         <v>0.60355029585799003</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>42346</v>
       </c>
@@ -1926,7 +2059,7 @@
         <v>0.43786982248519568</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>42349</v>
       </c>
@@ -1959,7 +2092,7 @@
         <v>0.45882352941176119</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>42353</v>
       </c>
@@ -1992,7 +2125,7 @@
         <v>0.49618320610686639</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>42353</v>
       </c>
@@ -2025,7 +2158,7 @@
         <v>0.41984732824426813</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>42354</v>
       </c>
@@ -2058,7 +2191,7 @@
         <v>0.32188841201716051</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>42354</v>
       </c>
@@ -2091,7 +2224,7 @@
         <v>0.32188841201716051</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>42355</v>
       </c>
@@ -2124,7 +2257,7 @@
         <v>0.48863636363636531</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>42355</v>
       </c>
@@ -2157,7 +2290,7 @@
         <v>0.48863636363636531</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>42357</v>
       </c>
@@ -2190,7 +2323,7 @@
         <v>0.46717171717171618</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>42357</v>
       </c>
@@ -2223,7 +2356,7 @@
         <v>0.51767676767677229</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>42359</v>
       </c>
@@ -2256,7 +2389,7 @@
         <v>0.48561151079136927</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>42359</v>
       </c>
@@ -2289,32 +2422,85 @@
         <v>0.37769784172660104</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H28" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I28" s="20">
-        <f>AVERAGE(I10:I26)</f>
-        <v>0.44784408923917829</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H29" s="18" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G29" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="I29" s="21">
-        <f>STDEV(I10:I26)</f>
-        <v>7.1893444203942031E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H30" s="19" t="s">
+      <c r="H29" s="26">
+        <f t="array" ref="H29:I33">LINEST(H10:H26,C10:C26,FALSE,TRUE)</f>
+        <v>0.464959527950491</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G30" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="I30" s="22">
-        <f>0.95*I29/SQRT(COUNT(I10:I26))</f>
-        <v>1.656488535471692E-2</v>
+      <c r="H30" s="27">
+        <v>1.5697650885656427E-2</v>
+      </c>
+      <c r="I30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G31" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" s="27">
+        <v>0.98208940403485401</v>
+      </c>
+      <c r="I31">
+        <v>4.6889632073054716E-2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G32" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32" s="27">
+        <v>877.32594131071289</v>
+      </c>
+      <c r="I32">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="28">
+        <v>1.9289217984648346</v>
+      </c>
+      <c r="I33">
+        <v>3.5178201535143061E-2</v>
+      </c>
+      <c r="J33" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2330,21 +2516,21 @@
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2358,7 +2544,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2399,7 +2585,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2444,7 +2630,7 @@
         <v>0.35999999999997812</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2493,7 +2679,7 @@
         <v>0.50699999999999967</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2542,7 +2728,7 @@
         <v>0.60299999999999976</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2591,7 +2777,7 @@
         <v>0.74800000000000111</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2639,7 +2825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2689,7 +2875,7 @@
         <v>0.48603351955306129</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2731,19 +2917,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>C8-K8</f>
         <v>0.59575000000000244</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="O16">
         <f>AVERAGE(O4:O7)</f>
         <v>0.13080932749067697</v>
       </c>
     </row>
-    <row r="17" spans="15:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O17" t="s">
         <v>12</v>
       </c>
@@ -2761,18 +2947,18 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2786,7 +2972,7 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2827,7 +3013,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2873,7 +3059,7 @@
         <v>0.76000000000000512</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2923,7 +3109,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2973,7 +3159,7 @@
         <v>2.0679999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3023,7 +3209,7 @@
         <v>2.8359999999999985</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3071,7 +3257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3121,7 +3307,7 @@
         <v>1.5081967213114742</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -3176,11 +3362,11 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -3300,12 +3486,12 @@
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="10">
         <v>42320</v>
       </c>
@@ -3328,7 +3514,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -3368,7 +3554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -3415,7 +3601,7 @@
         <v>0.60000000000000053</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3464,7 +3650,7 @@
         <v>0.54999999999998384</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3502,7 +3688,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3540,7 +3726,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>40</v>
       </c>
@@ -3563,7 +3749,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>41</v>
       </c>
@@ -3586,7 +3772,7 @@
         <v>0.34999999999998366</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="O9">
         <v>0.69199999999999995</v>
       </c>
@@ -3594,7 +3780,7 @@
         <v>0.45000000000001705</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>42326</v>
       </c>
@@ -3611,7 +3797,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -3643,7 +3829,7 @@
         <v>0.30000000000001137</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3672,7 +3858,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3701,7 +3887,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -3730,7 +3916,7 @@
         <v>0.34999999999998366</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>40</v>
       </c>
@@ -3747,7 +3933,7 @@
         <v>0.43333333333333002</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>41</v>
       </c>
@@ -3764,7 +3950,7 @@
         <v>7.6376261582610933E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>42327</v>
       </c>
@@ -3775,7 +3961,7 @@
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>36</v>
       </c>
@@ -3795,7 +3981,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3821,7 +4007,7 @@
         <v>0.45000000000001705</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3847,7 +4033,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -3891,7 +4077,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>46</v>
       </c>
@@ -3928,7 +4114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>42</v>
       </c>
@@ -3965,7 +4151,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="W25" t="s">
         <v>55</v>
       </c>
@@ -3995,4 +4181,96 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="41:F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Experimental Results/cell dry weight measurements.xlsx
+++ b/Experimental Results/cell dry weight measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835" activeTab="1"/>
+    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832"/>
   </bookViews>
   <sheets>
     <sheet name="Filtering and Spin" sheetId="5" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -689,7 +690,7 @@
                   <c:v>0.41000000000000369</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.27000000000000135</c:v>
+                  <c:v>0.25000000000000355</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.20999999999999019</c:v>
@@ -707,11 +708,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="103438592"/>
-        <c:axId val="103444480"/>
+        <c:axId val="126495744"/>
+        <c:axId val="126497920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103438592"/>
+        <c:axId val="126495744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -754,12 +755,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103444480"/>
+        <c:crossAx val="126497920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103444480"/>
+        <c:axId val="126497920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,7 +800,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103438592"/>
+        <c:crossAx val="126495744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -918,11 +919,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="105664896"/>
-        <c:axId val="105666432"/>
+        <c:axId val="138676096"/>
+        <c:axId val="138677632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="105664896"/>
+        <c:axId val="138676096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -932,12 +933,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105666432"/>
+        <c:crossAx val="138677632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="105666432"/>
+        <c:axId val="138677632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -948,7 +949,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105664896"/>
+        <c:crossAx val="138676096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1119,11 +1120,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="105699584"/>
-        <c:axId val="105701760"/>
+        <c:axId val="138690560"/>
+        <c:axId val="138692480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="105699584"/>
+        <c:axId val="138690560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,12 +1152,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105701760"/>
+        <c:crossAx val="138692480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="105701760"/>
+        <c:axId val="138692480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1185,7 +1186,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105699584"/>
+        <c:crossAx val="138690560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1206,7 +1207,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
+    <sheetView zoomScale="55" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1217,7 +1218,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8670000" cy="6300000"/>
+    <xdr:ext cx="8660296" cy="6281530"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1594,20 +1595,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -1636,7 +1637,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>42341</v>
       </c>
@@ -1669,7 +1670,7 @@
         <v>0.46031746031745896</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>42341</v>
       </c>
@@ -1702,7 +1703,7 @@
         <v>0.42857142857141661</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>42341</v>
       </c>
@@ -1735,7 +1736,7 @@
         <v>0.59105431309904033</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>42341</v>
       </c>
@@ -1768,7 +1769,7 @@
         <v>0.36741214057507487</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>42349</v>
       </c>
@@ -1804,7 +1805,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>42342</v>
       </c>
@@ -1829,7 +1830,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>42342</v>
       </c>
@@ -1856,12 +1857,12 @@
       <c r="H8" s="16"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="H9" s="16"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>42343</v>
       </c>
@@ -1894,7 +1895,7 @@
         <v>0.42586750788642347</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>42343</v>
       </c>
@@ -1927,7 +1928,7 @@
         <v>0.42586750788642347</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>42345</v>
       </c>
@@ -1960,7 +1961,7 @@
         <v>0.49848942598187856</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>42345</v>
       </c>
@@ -1993,7 +1994,7 @@
         <v>0.37764350453171397</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>42346</v>
       </c>
@@ -2026,7 +2027,7 @@
         <v>0.60355029585799003</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>42346</v>
       </c>
@@ -2059,7 +2060,7 @@
         <v>0.43786982248519568</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>42349</v>
       </c>
@@ -2092,7 +2093,7 @@
         <v>0.45882352941176119</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>42353</v>
       </c>
@@ -2125,7 +2126,7 @@
         <v>0.49618320610686639</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>42353</v>
       </c>
@@ -2158,7 +2159,7 @@
         <v>0.41984732824426813</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>42354</v>
       </c>
@@ -2191,7 +2192,7 @@
         <v>0.32188841201716051</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>42354</v>
       </c>
@@ -2224,7 +2225,7 @@
         <v>0.32188841201716051</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>42355</v>
       </c>
@@ -2257,7 +2258,7 @@
         <v>0.48863636363636531</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>42355</v>
       </c>
@@ -2290,7 +2291,7 @@
         <v>0.48863636363636531</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>42357</v>
       </c>
@@ -2323,7 +2324,7 @@
         <v>0.46717171717171618</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>42357</v>
       </c>
@@ -2356,7 +2357,7 @@
         <v>0.51767676767677229</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>42359</v>
       </c>
@@ -2370,26 +2371,26 @@
         <v>2.7229999999999999</v>
       </c>
       <c r="E25" s="13">
-        <v>2.7450000000000001</v>
+        <v>2.7440000000000002</v>
       </c>
       <c r="F25" s="13">
         <f t="shared" si="4"/>
-        <v>2.7364999999999999</v>
+        <v>2.7355</v>
       </c>
       <c r="G25">
         <f t="shared" si="5"/>
-        <v>1.3500000000000068E-2</v>
+        <v>1.2500000000000178E-2</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>0.27000000000000135</v>
+        <v>0.25000000000000355</v>
       </c>
       <c r="I25">
         <f t="shared" si="6"/>
-        <v>0.48561151079136927</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.44964028776979054</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>42359</v>
       </c>
@@ -2422,23 +2423,23 @@
         <v>0.37769784172660104</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G29" s="17" t="s">
         <v>71</v>
       </c>
       <c r="H29" s="26">
         <f t="array" ref="H29:I33">LINEST(H10:H26,C10:C26,FALSE,TRUE)</f>
-        <v>0.464959527950491</v>
+        <v>0.46371323404973241</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2447,12 +2448,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G30" s="18" t="s">
         <v>72</v>
       </c>
       <c r="H30" s="27">
-        <v>1.5697650885656427E-2</v>
+        <v>1.5681319460006466E-2</v>
       </c>
       <c r="I30" t="e">
         <v>#N/A</v>
@@ -2461,26 +2462,26 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G31" s="18" t="s">
         <v>73</v>
       </c>
       <c r="H31" s="27">
-        <v>0.98208940403485401</v>
+        <v>0.98203150808794293</v>
       </c>
       <c r="I31">
-        <v>4.6889632073054716E-2</v>
+        <v>4.6840849325525596E-2</v>
       </c>
       <c r="J31" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G32" s="18" t="s">
         <v>74</v>
       </c>
       <c r="H32" s="27">
-        <v>877.32594131071289</v>
+        <v>874.44757224527189</v>
       </c>
       <c r="I32">
         <v>16</v>
@@ -2489,15 +2490,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G33" s="19" t="s">
         <v>75</v>
       </c>
       <c r="H33" s="28">
-        <v>1.9289217984648346</v>
+        <v>1.9185949573513932</v>
       </c>
       <c r="I33">
-        <v>3.5178201535143061E-2</v>
+        <v>3.5105042648585466E-2</v>
       </c>
       <c r="J33" t="s">
         <v>79</v>
@@ -2516,21 +2517,21 @@
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2544,7 +2545,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2585,7 +2586,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2630,7 +2631,7 @@
         <v>0.35999999999997812</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2679,7 +2680,7 @@
         <v>0.50699999999999967</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2728,7 +2729,7 @@
         <v>0.60299999999999976</v>
       </c>
     </row>
-    <row r="7" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2777,7 +2778,7 @@
         <v>0.74800000000000111</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2825,7 +2826,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2875,7 +2876,7 @@
         <v>0.48603351955306129</v>
       </c>
     </row>
-    <row r="10" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2917,19 +2918,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>C8-K8</f>
         <v>0.59575000000000244</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O16">
         <f>AVERAGE(O4:O7)</f>
         <v>0.13080932749067697</v>
       </c>
     </row>
-    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="15:15" ht="15" x14ac:dyDescent="0.25">
       <c r="O17" t="s">
         <v>12</v>
       </c>
@@ -2947,18 +2948,18 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2972,7 +2973,7 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3013,7 +3014,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>0.76000000000000512</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3109,7 +3110,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3159,7 +3160,7 @@
         <v>2.0679999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3209,7 +3210,7 @@
         <v>2.8359999999999985</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3257,7 +3258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3307,7 +3308,7 @@
         <v>1.5081967213114742</v>
       </c>
     </row>
-    <row r="10" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -3362,11 +3363,11 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -3486,12 +3487,12 @@
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="10">
         <v>42320</v>
       </c>
@@ -3514,7 +3515,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -3554,7 +3555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -3601,7 +3602,7 @@
         <v>0.60000000000000053</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3650,7 +3651,7 @@
         <v>0.54999999999998384</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3688,7 +3689,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3726,7 +3727,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>40</v>
       </c>
@@ -3749,7 +3750,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>41</v>
       </c>
@@ -3772,7 +3773,7 @@
         <v>0.34999999999998366</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O9">
         <v>0.69199999999999995</v>
       </c>
@@ -3780,7 +3781,7 @@
         <v>0.45000000000001705</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>42326</v>
       </c>
@@ -3797,7 +3798,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -3829,7 +3830,7 @@
         <v>0.30000000000001137</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3858,7 +3859,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3887,7 +3888,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -3916,7 +3917,7 @@
         <v>0.34999999999998366</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>40</v>
       </c>
@@ -3933,7 +3934,7 @@
         <v>0.43333333333333002</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>41</v>
       </c>
@@ -3950,7 +3951,7 @@
         <v>7.6376261582610933E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>42327</v>
       </c>
@@ -3961,7 +3962,7 @@
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>36</v>
       </c>
@@ -3981,7 +3982,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -4007,7 +4008,7 @@
         <v>0.45000000000001705</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -4033,7 +4034,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -4077,7 +4078,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>46</v>
       </c>
@@ -4114,7 +4115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>42</v>
       </c>
@@ -4151,7 +4152,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="W25" t="s">
         <v>55</v>
       </c>
@@ -4187,11 +4188,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="41:F17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21"/>

--- a/Experimental Results/cell dry weight measurements.xlsx
+++ b/Experimental Results/cell dry weight measurements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="132" windowWidth="14340" windowHeight="5832"/>
+    <workbookView xWindow="390" yWindow="135" windowWidth="14340" windowHeight="5835"/>
   </bookViews>
   <sheets>
     <sheet name="Filtering and Spin" sheetId="5" r:id="rId1"/>
@@ -13,10 +13,8 @@
     <sheet name="Trial 2" sheetId="2" r:id="rId4"/>
     <sheet name="Salts Calculations" sheetId="3" r:id="rId5"/>
     <sheet name="Filtering Method" sheetId="4" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -267,7 +265,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,26 +284,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF363636"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF363636"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF363636"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,26 +304,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD8D8D8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -447,31 +412,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -492,25 +437,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,7 +625,7 @@
                   <c:v>0.41000000000000369</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.25000000000000355</c:v>
+                  <c:v>0.22999999999999687</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.20999999999999019</c:v>
@@ -708,11 +643,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="126495744"/>
-        <c:axId val="126497920"/>
+        <c:axId val="106583936"/>
+        <c:axId val="106594304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126495744"/>
+        <c:axId val="106583936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -755,12 +690,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126497920"/>
+        <c:crossAx val="106594304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126497920"/>
+        <c:axId val="106594304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -800,7 +735,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126495744"/>
+        <c:crossAx val="106583936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -919,11 +854,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="138676096"/>
-        <c:axId val="138677632"/>
+        <c:axId val="108155648"/>
+        <c:axId val="108157184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="138676096"/>
+        <c:axId val="108155648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -933,12 +868,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138677632"/>
+        <c:crossAx val="108157184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="138677632"/>
+        <c:axId val="108157184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,7 +884,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138676096"/>
+        <c:crossAx val="108155648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1120,11 +1055,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="138690560"/>
-        <c:axId val="138692480"/>
+        <c:axId val="108190336"/>
+        <c:axId val="108192512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="138690560"/>
+        <c:axId val="108190336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1152,12 +1087,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138692480"/>
+        <c:crossAx val="108192512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="138692480"/>
+        <c:axId val="108192512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,7 +1121,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138690560"/>
+        <c:crossAx val="108190336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1218,7 +1153,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8660296" cy="6281530"/>
+    <xdr:ext cx="8659091" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1595,20 +1530,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>58</v>
       </c>
@@ -1637,7 +1572,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>42341</v>
       </c>
@@ -1670,7 +1605,7 @@
         <v>0.46031746031745896</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>42341</v>
       </c>
@@ -1703,7 +1638,7 @@
         <v>0.42857142857141661</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>42341</v>
       </c>
@@ -1736,7 +1671,7 @@
         <v>0.59105431309904033</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>42341</v>
       </c>
@@ -1769,7 +1704,7 @@
         <v>0.36741214057507487</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>42349</v>
       </c>
@@ -1805,7 +1740,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>42342</v>
       </c>
@@ -1830,7 +1765,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>42342</v>
       </c>
@@ -1857,12 +1792,12 @@
       <c r="H8" s="16"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="H9" s="16"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>42343</v>
       </c>
@@ -1895,7 +1830,7 @@
         <v>0.42586750788642347</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>42343</v>
       </c>
@@ -1928,7 +1863,7 @@
         <v>0.42586750788642347</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>42345</v>
       </c>
@@ -1961,7 +1896,7 @@
         <v>0.49848942598187856</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>42345</v>
       </c>
@@ -1994,7 +1929,7 @@
         <v>0.37764350453171397</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>42346</v>
       </c>
@@ -2027,7 +1962,7 @@
         <v>0.60355029585799003</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>42346</v>
       </c>
@@ -2060,7 +1995,7 @@
         <v>0.43786982248519568</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>42349</v>
       </c>
@@ -2093,7 +2028,7 @@
         <v>0.45882352941176119</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>42353</v>
       </c>
@@ -2126,7 +2061,7 @@
         <v>0.49618320610686639</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>42353</v>
       </c>
@@ -2159,7 +2094,7 @@
         <v>0.41984732824426813</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>42354</v>
       </c>
@@ -2192,7 +2127,7 @@
         <v>0.32188841201716051</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>42354</v>
       </c>
@@ -2225,7 +2160,7 @@
         <v>0.32188841201716051</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>42355</v>
       </c>
@@ -2258,7 +2193,7 @@
         <v>0.48863636363636531</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>42355</v>
       </c>
@@ -2291,7 +2226,7 @@
         <v>0.48863636363636531</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>42357</v>
       </c>
@@ -2324,7 +2259,7 @@
         <v>0.46717171717171618</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>42357</v>
       </c>
@@ -2357,7 +2292,7 @@
         <v>0.51767676767677229</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>42359</v>
       </c>
@@ -2371,26 +2306,26 @@
         <v>2.7229999999999999</v>
       </c>
       <c r="E25" s="13">
-        <v>2.7440000000000002</v>
+        <v>2.7429999999999999</v>
       </c>
       <c r="F25" s="13">
         <f t="shared" si="4"/>
-        <v>2.7355</v>
+        <v>2.7344999999999997</v>
       </c>
       <c r="G25">
         <f t="shared" si="5"/>
-        <v>1.2500000000000178E-2</v>
+        <v>1.1499999999999844E-2</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>0.25000000000000355</v>
+        <v>0.22999999999999687</v>
       </c>
       <c r="I25">
         <f t="shared" si="6"/>
-        <v>0.44964028776979054</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.41366906474819576</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>42359</v>
       </c>
@@ -2423,23 +2358,23 @@
         <v>0.37769784172660104</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G29" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="20">
         <f t="array" ref="H29:I33">LINEST(H10:H26,C10:C26,FALSE,TRUE)</f>
-        <v>0.46371323404973241</v>
+        <v>0.46246694014897327</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2448,12 +2383,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G30" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="27">
-        <v>1.5681319460006466E-2</v>
+      <c r="H30" s="21">
+        <v>1.583669789149721E-2</v>
       </c>
       <c r="I30" t="e">
         <v>#N/A</v>
@@ -2462,26 +2397,26 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G31" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="H31" s="27">
-        <v>0.98203150808794293</v>
+      <c r="H31" s="21">
+        <v>0.98158316640827337</v>
       </c>
       <c r="I31">
-        <v>4.6840849325525596E-2</v>
+        <v>4.7304972112926003E-2</v>
       </c>
       <c r="J31" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G32" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="H32" s="27">
-        <v>874.44757224527189</v>
+      <c r="H32" s="21">
+        <v>852.77040617816363</v>
       </c>
       <c r="I32">
         <v>16</v>
@@ -2490,15 +2425,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="7:10" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G33" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="H33" s="28">
-        <v>1.9185949573513932</v>
+      <c r="H33" s="22">
+        <v>1.9082958338143001</v>
       </c>
       <c r="I33">
-        <v>3.5105042648585466E-2</v>
+        <v>3.5804166185675307E-2</v>
       </c>
       <c r="J33" t="s">
         <v>79</v>
@@ -2517,21 +2452,21 @@
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2545,7 +2480,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2586,7 +2521,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2631,7 +2566,7 @@
         <v>0.35999999999997812</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2680,7 +2615,7 @@
         <v>0.50699999999999967</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2729,7 +2664,7 @@
         <v>0.60299999999999976</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2778,7 +2713,7 @@
         <v>0.74800000000000111</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2826,7 +2761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2876,7 +2811,7 @@
         <v>0.48603351955306129</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2918,19 +2853,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E13">
         <f>C8-K8</f>
         <v>0.59575000000000244</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="O16">
         <f>AVERAGE(O4:O7)</f>
         <v>0.13080932749067697</v>
       </c>
     </row>
-    <row r="17" spans="15:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O17" t="s">
         <v>12</v>
       </c>
@@ -2948,18 +2883,18 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2973,7 +2908,7 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3014,7 +2949,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3060,7 +2995,7 @@
         <v>0.76000000000000512</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3110,7 +3045,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3160,7 +3095,7 @@
         <v>2.0679999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3210,7 +3145,7 @@
         <v>2.8359999999999985</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3258,7 +3193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3308,7 +3243,7 @@
         <v>1.5081967213114742</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -3363,11 +3298,11 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -3487,12 +3422,12 @@
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="10">
         <v>42320</v>
       </c>
@@ -3515,7 +3450,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -3555,7 +3490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -3602,7 +3537,7 @@
         <v>0.60000000000000053</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3651,7 +3586,7 @@
         <v>0.54999999999998384</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3689,7 +3624,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3727,7 +3662,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>40</v>
       </c>
@@ -3750,7 +3685,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
         <v>41</v>
       </c>
@@ -3773,7 +3708,7 @@
         <v>0.34999999999998366</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="O9">
         <v>0.69199999999999995</v>
       </c>
@@ -3781,7 +3716,7 @@
         <v>0.45000000000001705</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>42326</v>
       </c>
@@ -3798,7 +3733,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -3830,7 +3765,7 @@
         <v>0.30000000000001137</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3859,7 +3794,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3888,7 +3823,7 @@
         <v>0.50000000000001155</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -3917,7 +3852,7 @@
         <v>0.34999999999998366</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>40</v>
       </c>
@@ -3934,7 +3869,7 @@
         <v>0.43333333333333002</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>41</v>
       </c>
@@ -3951,7 +3886,7 @@
         <v>7.6376261582610933E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>42327</v>
       </c>
@@ -3962,7 +3897,7 @@
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>36</v>
       </c>
@@ -3982,7 +3917,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -4008,7 +3943,7 @@
         <v>0.45000000000001705</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -4034,7 +3969,7 @@
         <v>0.44999999999999485</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -4078,7 +4013,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>46</v>
       </c>
@@ -4115,7 +4050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>42</v>
       </c>
@@ -4152,7 +4087,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="W25" t="s">
         <v>55</v>
       </c>
@@ -4182,94 +4117,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="24"/>
-    </row>
-    <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-    </row>
-    <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="24"/>
-    </row>
-    <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="24"/>
-    </row>
-    <row r="8" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="24"/>
-    </row>
-    <row r="10" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-    </row>
-    <row r="11" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="20"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>